--- a/chashmal-after.xlsx
+++ b/chashmal-after.xlsx
@@ -500,7 +500,7 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,68 +1583,50 @@
     <row r="19" ht="14.15" customHeight="1" s="9">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>ג. תחתון - גלבוע</t>
+          <t>נגב צפוני</t>
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>4814</v>
+        <v>2356</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>סניטציה</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל לישראל בע"מ</t>
+          <t>חברת חשמל - מחוז דרום</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>בטיחות</t>
+          <t>פניות מלקוחות חוץ</t>
         </is>
       </c>
       <c r="F19" s="2" t="str"/>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>כבישים</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>כביש 77 בא.ת ציפורית</t>
-        </is>
-      </c>
+          <t>יערות קק"ל</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="str"/>
       <c r="I19" s="5" t="str"/>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>17463</t>
-        </is>
-      </c>
-      <c r="K19" s="6" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+      <c r="J19" s="5" t="str"/>
+      <c r="K19" s="6" t="str"/>
       <c r="L19" s="10" t="n">
-        <v>43991</v>
+        <v>44197</v>
       </c>
       <c r="M19" s="10" t="n">
-        <v>44934</v>
+        <v>44561</v>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>גיל עצמון</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>ברושים</t>
-        </is>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>3</v>
-      </c>
+          <t>בוריס וולודרסקי</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="str"/>
+      <c r="P19" s="5" t="str"/>
       <c r="Q19" s="2" t="str"/>
       <c r="R19" s="4" t="str"/>
     </row>
@@ -1655,7 +1637,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>5287</v>
+        <v>4814</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1664,7 +1646,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל</t>
+          <t>חברת חשמל לישראל בע"מ</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1672,37 +1654,47 @@
           <t>בטיחות</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>עצים מסוכנים</t>
-        </is>
-      </c>
+      <c r="F20" s="2" t="str"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">יער ציפורי          </t>
+          <t>כבישים</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>יערות גוש נצרת</t>
+          <t>כביש 77 בא.ת ציפורית</t>
         </is>
       </c>
       <c r="I20" s="5" t="str"/>
-      <c r="J20" s="5" t="str"/>
-      <c r="K20" s="6" t="str"/>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>17463</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="L20" s="10" t="n">
-        <v>44197</v>
+        <v>43991</v>
       </c>
       <c r="M20" s="10" t="n">
-        <v>44561</v>
+        <v>44934</v>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
           <t>גיל עצמון</t>
         </is>
       </c>
-      <c r="O20" s="2" t="str"/>
-      <c r="P20" s="5" t="str"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>ברושים</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" s="2" t="str"/>
       <c r="R20" s="4" t="str"/>
     </row>
@@ -1713,7 +1705,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>5288</v>
+        <v>5287</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
@@ -1737,12 +1729,12 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">יער גבעת המורה      </t>
+          <t xml:space="preserve">יער ציפורי          </t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>יערות גוש גלבוע</t>
+          <t>יערות גוש נצרת</t>
         </is>
       </c>
       <c r="I21" s="5" t="str"/>
@@ -1771,7 +1763,7 @@
         </is>
       </c>
       <c r="B22" s="5" t="n">
-        <v>5289</v>
+        <v>5288</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
@@ -1795,12 +1787,12 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">לביא                </t>
+          <t xml:space="preserve">יער גבעת המורה      </t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>יערות גוש טבריה</t>
+          <t>יערות גוש גלבוע</t>
         </is>
       </c>
       <c r="I22" s="5" t="str"/>
@@ -1825,34 +1817,42 @@
     <row r="23" ht="14.15" customHeight="1" s="9">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>שפלה חוף</t>
+          <t>ג. תחתון - גלבוע</t>
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>13064</v>
+        <v>5289</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>דילול וגיזום</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל לישראל בע"מ</t>
+          <t>חברת חשמל</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>פניות מלקוחות חוץ</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="str"/>
+          <t>בטיחות</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>עצים מסוכנים</t>
+        </is>
+      </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>יערות קק"ל</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="str"/>
+          <t xml:space="preserve">לביא                </t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>יערות גוש טבריה</t>
+        </is>
+      </c>
       <c r="I23" s="5" t="str"/>
       <c r="J23" s="5" t="str"/>
       <c r="K23" s="6" t="str"/>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>גלעד מסטאי</t>
+          <t>גיל עצמון</t>
         </is>
       </c>
       <c r="O23" s="2" t="str"/>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>13065</v>
+        <v>13064</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>13066</v>
+        <v>13065</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>13067</v>
+        <v>13066</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="B27" s="5" t="n">
-        <v>13068</v>
+        <v>13067</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -2075,70 +2075,52 @@
     <row r="28" ht="14.2" customHeight="1" s="9">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>מנשה שרון</t>
+          <t>שפלה חוף</t>
         </is>
       </c>
       <c r="B28" s="5" t="n">
-        <v>18856</v>
+        <v>13068</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>דילול וגיזום</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>חברת  חשמל</t>
+          <t>חברת חשמל לישראל בע"מ</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>אחר</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>צמודים לקו מתח עליון</t>
-        </is>
-      </c>
+          <t>פניות מלקוחות חוץ</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="str"/>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">נתניה               </t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>חורשת ותיקים צמוד לכביש 57</t>
-        </is>
-      </c>
+          <t>יערות קק"ל</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="str"/>
       <c r="I28" s="5" t="str"/>
       <c r="J28" s="5" t="str"/>
       <c r="K28" s="6" t="str"/>
       <c r="L28" s="10" t="n">
-        <v>43573</v>
+        <v>44197</v>
       </c>
       <c r="M28" s="10" t="n">
-        <v>44304</v>
+        <v>44561</v>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>סוהיל זיידן</t>
-        </is>
-      </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>46</v>
-      </c>
+          <t>גלעד מסטאי</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="str"/>
+      <c r="P28" s="5" t="str"/>
       <c r="Q28" s="2" t="str"/>
-      <c r="R28" s="4" t="inlineStr">
-        <is>
-          <t>לכריתה</t>
-        </is>
-      </c>
+      <c r="R28" s="4" t="str"/>
     </row>
     <row r="29" ht="14.15" customHeight="1" s="9">
       <c r="A29" s="2" t="inlineStr">
@@ -2199,12 +2181,12 @@
         </is>
       </c>
       <c r="P29" s="5" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="2" t="str"/>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>זרועות אקליפטוס לכריתה</t>
+          <t>לכריתה</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2197,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>19145</v>
+        <v>18856</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
@@ -2224,7 +2206,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל (אהרון גבאי)</t>
+          <t>חברת  חשמל</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2234,49 +2216,45 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">הקמת קו מתח </t>
+          <t>צמודים לקו מתח עליון</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">מעין צבי            </t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="str"/>
+          <t xml:space="preserve">נתניה               </t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>חורשת ותיקים צמוד לכביש 57</t>
+        </is>
+      </c>
       <c r="I30" s="5" t="str"/>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>10948</t>
-        </is>
-      </c>
-      <c r="K30" s="6" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="J30" s="5" t="str"/>
+      <c r="K30" s="6" t="str"/>
       <c r="L30" s="10" t="n">
-        <v>43682</v>
+        <v>43573</v>
       </c>
       <c r="M30" s="10" t="n">
-        <v>44413</v>
+        <v>44304</v>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>רמי דוידי</t>
+          <t>סוהיל זיידן</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>אשל החוף</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c r="P30" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="2" t="str"/>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 דונם </t>
+          <t>זרועות אקליפטוס לכריתה</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2265,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>19945</v>
+        <v>19145</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -2296,37 +2274,41 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>חברת החשמל לישראל</t>
+          <t>חברת חשמל (אהרון גבאי)</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>בניה</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="str"/>
+          <t>אחר</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הקמת קו מתח </t>
+        </is>
+      </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">חדרה                </t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>תחנת הכוח אורות רבין</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מעין צבי            </t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="str"/>
       <c r="I31" s="5" t="str"/>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>10651-10649</t>
-        </is>
-      </c>
-      <c r="K31" s="6" t="str"/>
+          <t>10948</t>
+        </is>
+      </c>
+      <c r="K31" s="6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="L31" s="10" t="n">
-        <v>43793</v>
+        <v>43682</v>
       </c>
       <c r="M31" s="10" t="n">
-        <v>44524</v>
+        <v>44413</v>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
@@ -2335,16 +2317,16 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>ושינגטוניה חסונה</t>
+          <t>אשל החוף</t>
         </is>
       </c>
       <c r="P31" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2" t="str"/>
       <c r="R31" s="4" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t xml:space="preserve">10 דונם </t>
         </is>
       </c>
     </row>
@@ -2403,11 +2385,11 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>תמר מצוי</t>
+          <t>ושינגטוניה חסונה</t>
         </is>
       </c>
       <c r="P32" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="2" t="str"/>
       <c r="R32" s="4" t="inlineStr">
@@ -2423,50 +2405,46 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>19991</v>
+        <v>19945</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>כריתה והעתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל לישראל</t>
+          <t>חברת החשמל לישראל</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>אחר</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>הנחת כבל חשמל</t>
-        </is>
-      </c>
+          <t>בניה</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="str"/>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">חריש                </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>הנחת כבל חשמל מתח גבוה בחריש</t>
-        </is>
-      </c>
-      <c r="I33" s="5" t="inlineStr">
-        <is>
-          <t>תכנית עבודה ח.צ 209625</t>
-        </is>
-      </c>
-      <c r="J33" s="5" t="str"/>
+          <t>תחנת הכוח אורות רבין</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="str"/>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>10651-10649</t>
+        </is>
+      </c>
       <c r="K33" s="6" t="str"/>
       <c r="L33" s="10" t="n">
-        <v>43885</v>
+        <v>43793</v>
       </c>
       <c r="M33" s="10" t="n">
-        <v>44616</v>
+        <v>44524</v>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
@@ -2475,18 +2453,18 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>אורן ירושלים</t>
+          <t>תמר מצוי</t>
         </is>
       </c>
       <c r="P33" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>כריתה</t>
-        </is>
-      </c>
-      <c r="R33" s="4" t="str"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2" t="str"/>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>כריתה</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="14.15" customHeight="1" s="9">
       <c r="A34" s="2" t="inlineStr">
@@ -2547,11 +2525,11 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>ברוש מצוי</t>
+          <t>אורן ירושלים</t>
         </is>
       </c>
       <c r="P34" s="5" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
@@ -2619,11 +2597,11 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t>ברוש מצוי</t>
         </is>
       </c>
       <c r="P35" s="5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
@@ -2691,11 +2669,11 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>חרוב מצוי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c r="P36" s="5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
@@ -2711,7 +2689,7 @@
         </is>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20943</v>
+        <v>19991</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
@@ -2720,37 +2698,41 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל בע"מ</t>
+          <t>חברת חשמל לישראל</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>בניה</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="str"/>
+          <t>אחר</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>הנחת כבל חשמל</t>
+        </is>
+      </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">חריש                </t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">תחנת כח אורות רבין </t>
-        </is>
-      </c>
-      <c r="I37" s="5" t="str"/>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>10651,10649</t>
-        </is>
-      </c>
+          <t>הנחת כבל חשמל מתח גבוה בחריש</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>תכנית עבודה ח.צ 209625</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="str"/>
       <c r="K37" s="6" t="str"/>
       <c r="L37" s="10" t="n">
-        <v>43913</v>
+        <v>43885</v>
       </c>
       <c r="M37" s="10" t="n">
-        <v>44643</v>
+        <v>44616</v>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
@@ -2759,11 +2741,11 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>אקליפטוסים</t>
+          <t>חרוב מצוי</t>
         </is>
       </c>
       <c r="P37" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
@@ -2827,11 +2809,11 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>אלביציה צהובה (לבק)</t>
+          <t>אקליפטוסים</t>
         </is>
       </c>
       <c r="P38" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
@@ -2895,11 +2877,11 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>פלפלון דמוי-אלה</t>
+          <t>אלביציה צהובה (לבק)</t>
         </is>
       </c>
       <c r="P39" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
@@ -2963,11 +2945,11 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>ינבוט לבן</t>
+          <t>פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c r="P40" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
@@ -3031,15 +3013,15 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>תות לבן</t>
+          <t>ינבוט לבן</t>
         </is>
       </c>
       <c r="P41" s="5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R41" s="4" t="str"/>
@@ -3099,11 +3081,11 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>אשל הפרקים</t>
+          <t>תות לבן</t>
         </is>
       </c>
       <c r="P42" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
@@ -3171,11 +3153,11 @@
         </is>
       </c>
       <c r="P43" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>העתקה</t>
         </is>
       </c>
       <c r="R43" s="4" t="str"/>
@@ -3235,15 +3217,15 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>זית אירופי</t>
+          <t>אשל הפרקים</t>
         </is>
       </c>
       <c r="P44" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R44" s="4" t="str"/>
@@ -3303,7 +3285,7 @@
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>חרוב מצוי</t>
+          <t>זית אירופי</t>
         </is>
       </c>
       <c r="P45" s="5" t="n">
@@ -3311,7 +3293,7 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>העתקה</t>
         </is>
       </c>
       <c r="R45" s="4" t="str"/>
@@ -3371,7 +3353,7 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>פיקוס התאנה</t>
+          <t>חרוב מצוי</t>
         </is>
       </c>
       <c r="P46" s="5" t="n">
@@ -3379,7 +3361,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R46" s="4" t="str"/>
@@ -3439,22 +3421,18 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>קופרניסיה לבנה</t>
+          <t>פיקוס התאנה</t>
         </is>
       </c>
       <c r="P47" s="5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
-        </is>
-      </c>
-      <c r="R47" s="4" t="inlineStr">
-        <is>
-          <t>קופניון אנקרדי</t>
-        </is>
-      </c>
+          <t>העתקה</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="str"/>
     </row>
     <row r="48" ht="14.2" customHeight="1" s="9">
       <c r="A48" s="2" t="inlineStr">
@@ -3511,18 +3489,22 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>ושינגטוניה חוטית</t>
+          <t>קופרניסיה לבנה</t>
         </is>
       </c>
       <c r="P48" s="5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>כריתה</t>
         </is>
       </c>
-      <c r="R48" s="4" t="str"/>
+      <c r="R48" s="4" t="inlineStr">
+        <is>
+          <t>קופניון אנקרדי</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="14.15" customHeight="1" s="9">
       <c r="A49" s="2" t="inlineStr">
@@ -3579,11 +3561,11 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>ושינגטוניה חסונה</t>
+          <t>ושינגטוניה חוטית</t>
         </is>
       </c>
       <c r="P49" s="5" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
@@ -3647,15 +3629,15 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>תמר מצוי</t>
+          <t>ושינגטוניה חסונה</t>
         </is>
       </c>
       <c r="P50" s="5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R50" s="4" t="str"/>
@@ -3719,18 +3701,14 @@
         </is>
       </c>
       <c r="P51" s="5" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
-        </is>
-      </c>
-      <c r="R51" s="4" t="inlineStr">
-        <is>
-          <t>עץ מס' 615 נוסף לכריתה בתאריך 3/1/21</t>
-        </is>
-      </c>
+          <t>העתקה</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="str"/>
     </row>
     <row r="52" ht="14.2" customHeight="1" s="9">
       <c r="A52" s="2" t="inlineStr">
@@ -3787,18 +3765,22 @@
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>אלמוגן רחב-עלים</t>
+          <t>תמר מצוי</t>
         </is>
       </c>
       <c r="P52" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>כריתה</t>
         </is>
       </c>
-      <c r="R52" s="4" t="str"/>
+      <c r="R52" s="4" t="inlineStr">
+        <is>
+          <t>עץ מס' 615 נוסף לכריתה בתאריך 3/1/21</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="14.15" customHeight="1" s="9">
       <c r="A53" s="2" t="inlineStr">
@@ -3863,7 +3845,7 @@
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R53" s="4" t="str"/>
@@ -3923,7 +3905,7 @@
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>גואיבה מצויה</t>
+          <t>אלמוגן רחב-עלים</t>
         </is>
       </c>
       <c r="P54" s="5" t="n">
@@ -3931,7 +3913,7 @@
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>העתקה</t>
         </is>
       </c>
       <c r="R54" s="4" t="str"/>
@@ -3991,11 +3973,11 @@
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>פיקוס בינימינה</t>
+          <t>גואיבה מצויה</t>
         </is>
       </c>
       <c r="P55" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
@@ -4059,7 +4041,7 @@
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>פיקוס הגומי</t>
+          <t>פיקוס בינימינה</t>
         </is>
       </c>
       <c r="P56" s="5" t="n">
@@ -4127,11 +4109,11 @@
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
-          <t>פיקוס מעוקם</t>
+          <t>פיקוס הגומי</t>
         </is>
       </c>
       <c r="P57" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
@@ -4199,11 +4181,11 @@
         </is>
       </c>
       <c r="P58" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R58" s="4" t="str"/>
@@ -4263,11 +4245,11 @@
       </c>
       <c r="O59" s="2" t="inlineStr">
         <is>
-          <t>פיקוס קדוש</t>
+          <t>פיקוס מעוקם</t>
         </is>
       </c>
       <c r="P59" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
@@ -4335,11 +4317,11 @@
         </is>
       </c>
       <c r="P60" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>העתקה</t>
         </is>
       </c>
       <c r="R60" s="4" t="str"/>
@@ -4399,11 +4381,11 @@
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>שלטית מקומטת</t>
+          <t>פיקוס קדוש</t>
         </is>
       </c>
       <c r="P61" s="5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
@@ -4467,11 +4449,11 @@
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>שפלרה מקרינה</t>
+          <t>שלטית מקומטת</t>
         </is>
       </c>
       <c r="P62" s="5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
@@ -4535,15 +4517,15 @@
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>פלומריה ריחנית</t>
+          <t>שפלרה מקרינה</t>
         </is>
       </c>
       <c r="P63" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>העתקה</t>
+          <t>כריתה</t>
         </is>
       </c>
       <c r="R63" s="4" t="str"/>
@@ -4603,15 +4585,15 @@
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>צחר כחלחל</t>
+          <t>פלומריה ריחנית</t>
         </is>
       </c>
       <c r="P64" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>העתקה</t>
         </is>
       </c>
       <c r="R64" s="4" t="str"/>
@@ -4671,7 +4653,7 @@
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>קליסטמון אדום</t>
+          <t>צחר כחלחל</t>
         </is>
       </c>
       <c r="P65" s="5" t="n">
@@ -4691,46 +4673,46 @@
         </is>
       </c>
       <c r="B66" s="5" t="n">
-        <v>21114</v>
+        <v>20943</v>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>כריתה</t>
+          <t>כריתה והעתקה</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>קק"ל יער קאסם ( חברת החשמל )</t>
+          <t>חברת חשמל בע"מ</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>אחר</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הפרעה לקו מתח עליון </t>
-        </is>
-      </c>
+          <t>בניה</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="str"/>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>יער קקל</t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">יער קאסם </t>
+          <t xml:space="preserve">תחנת כח אורות רבין </t>
         </is>
       </c>
       <c r="I66" s="5" t="str"/>
-      <c r="J66" s="5" t="str"/>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>10651,10649</t>
+        </is>
+      </c>
       <c r="K66" s="6" t="str"/>
       <c r="L66" s="10" t="n">
-        <v>43943</v>
+        <v>43913</v>
       </c>
       <c r="M66" s="10" t="n">
-        <v>44308</v>
+        <v>44643</v>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
@@ -4739,18 +4721,18 @@
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>אורנים</t>
+          <t>קליסטמון אדום</t>
         </is>
       </c>
       <c r="P66" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="2" t="str"/>
-      <c r="R66" s="4" t="inlineStr">
-        <is>
-          <t>ליד עמוד 1239</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>כריתה</t>
+        </is>
+      </c>
+      <c r="R66" s="4" t="str"/>
     </row>
     <row r="67" ht="14.2" customHeight="1" s="9">
       <c r="A67" s="2" t="inlineStr">
@@ -4811,12 +4793,12 @@
         </is>
       </c>
       <c r="P67" s="5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="2" t="str"/>
       <c r="R67" s="4" t="inlineStr">
         <is>
-          <t>ליד עמוד 1240</t>
+          <t>ליד עמוד 1239</t>
         </is>
       </c>
     </row>
@@ -4875,16 +4857,16 @@
       </c>
       <c r="O68" s="2" t="inlineStr">
         <is>
-          <t>ברושים</t>
+          <t>אורנים</t>
         </is>
       </c>
       <c r="P68" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q68" s="2" t="str"/>
       <c r="R68" s="4" t="inlineStr">
         <is>
-          <t>ליד עמוד 1239</t>
+          <t>ליד עמוד 1240</t>
         </is>
       </c>
     </row>
@@ -4943,11 +4925,11 @@
       </c>
       <c r="O69" s="2" t="inlineStr">
         <is>
-          <t>שיטה כחלחלה</t>
+          <t>ברושים</t>
         </is>
       </c>
       <c r="P69" s="5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q69" s="2" t="str"/>
       <c r="R69" s="4" t="inlineStr">
@@ -4963,7 +4945,7 @@
         </is>
       </c>
       <c r="B70" s="5" t="n">
-        <v>21360</v>
+        <v>21114</v>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
@@ -4972,41 +4954,37 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>חברת החשמל לישראל</t>
+          <t>קק"ל יער קאסם ( חברת החשמל )</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>בניה</t>
+          <t>אחר</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>בניית עמוד קו 400</t>
+          <t xml:space="preserve">הפרעה לקו מתח עליון </t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">רגבים               </t>
+          <t>יער קקל</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>יער עירון - עמוד חשמל 41439</t>
+          <t xml:space="preserve">יער קאסם </t>
         </is>
       </c>
       <c r="I70" s="5" t="str"/>
       <c r="J70" s="5" t="str"/>
-      <c r="K70" s="6" t="inlineStr">
-        <is>
-          <t>7 עומד 116</t>
-        </is>
-      </c>
+      <c r="K70" s="6" t="str"/>
       <c r="L70" s="10" t="n">
-        <v>44077</v>
+        <v>43943</v>
       </c>
       <c r="M70" s="10" t="n">
-        <v>44444</v>
+        <v>44308</v>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
@@ -5015,16 +4993,16 @@
       </c>
       <c r="O70" s="2" t="inlineStr">
         <is>
-          <t>ברושים</t>
+          <t>שיטה כחלחלה</t>
         </is>
       </c>
       <c r="P70" s="5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="2" t="str"/>
       <c r="R70" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">כריתה </t>
+          <t>ליד עמוד 1239</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5013,7 @@
         </is>
       </c>
       <c r="B71" s="5" t="n">
-        <v>22450</v>
+        <v>21360</v>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
@@ -5044,43 +5022,61 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>חברת חשמל לישראל</t>
+          <t>חברת החשמל לישראל</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>פינוי עץ מיידי</t>
+          <t>בניה</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>בטיחות עצים מסוכנים</t>
+          <t>בניית עמוד קו 400</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>יערות קק"ל</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="str"/>
+          <t xml:space="preserve">רגבים               </t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>יער עירון - עמוד חשמל 41439</t>
+        </is>
+      </c>
       <c r="I71" s="5" t="str"/>
       <c r="J71" s="5" t="str"/>
-      <c r="K71" s="6" t="str"/>
+      <c r="K71" s="6" t="inlineStr">
+        <is>
+          <t>7 עומד 116</t>
+        </is>
+      </c>
       <c r="L71" s="10" t="n">
-        <v>44215</v>
+        <v>44077</v>
       </c>
       <c r="M71" s="10" t="n">
-        <v>44580</v>
+        <v>44444</v>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
           <t>רמי דוידי</t>
         </is>
       </c>
-      <c r="O71" s="2" t="str"/>
-      <c r="P71" s="5" t="str"/>
+      <c r="O71" s="2" t="inlineStr">
+        <is>
+          <t>ברושים</t>
+        </is>
+      </c>
+      <c r="P71" s="5" t="n">
+        <v>50</v>
+      </c>
       <c r="Q71" s="2" t="str"/>
-      <c r="R71" s="4" t="str"/>
+      <c r="R71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">כריתה </t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="14.2" customHeight="1" s="9">
       <c r="A72" s="2" t="inlineStr">
@@ -5089,57 +5085,278 @@
         </is>
       </c>
       <c r="B72" s="5" t="n">
+        <v>22332</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>כריתה והעתקה</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>חברת חשמל</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>בניה</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>תכנית פיתוח והקמת תחנת כח.</t>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">חדרה                </t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>קו דלק צינור תשן מחלף קיסריה</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>10652</t>
+        </is>
+      </c>
+      <c r="K72" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" s="10" t="n">
+        <v>44229</v>
+      </c>
+      <c r="M72" s="10" t="n">
+        <v>44959</v>
+      </c>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>רמי דוידי</t>
+        </is>
+      </c>
+      <c r="O72" s="2" t="inlineStr">
+        <is>
+          <t>זית אירופי</t>
+        </is>
+      </c>
+      <c r="P72" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>העתקה</t>
+        </is>
+      </c>
+      <c r="R72" s="4" t="inlineStr">
+        <is>
+          <t>להעתקה</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="14.15" customHeight="1" s="9">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>מנשה שרון</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>22332</v>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>כריתה והעתקה</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>חברת חשמל</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>בניה</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>תכנית פיתוח והקמת תחנת כח.</t>
+        </is>
+      </c>
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">חדרה                </t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>קו דלק צינור תשן מחלף קיסריה</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J73" s="5" t="inlineStr">
+        <is>
+          <t>10652</t>
+        </is>
+      </c>
+      <c r="K73" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L73" s="10" t="n">
+        <v>44229</v>
+      </c>
+      <c r="M73" s="10" t="n">
+        <v>44959</v>
+      </c>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>רמי דוידי</t>
+        </is>
+      </c>
+      <c r="O73" s="2" t="inlineStr">
+        <is>
+          <t>חרוב מצוי</t>
+        </is>
+      </c>
+      <c r="P73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>כריתה</t>
+        </is>
+      </c>
+      <c r="R73" s="4" t="inlineStr">
+        <is>
+          <t>לכריתה</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="14.2" customHeight="1" s="9">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>מנשה שרון</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>22450</v>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>כריתה</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>חברת חשמל לישראל</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>פינוי עץ מיידי</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>בטיחות עצים מסוכנים</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>יערות קק"ל</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="str"/>
+      <c r="I74" s="5" t="str"/>
+      <c r="J74" s="5" t="str"/>
+      <c r="K74" s="6" t="str"/>
+      <c r="L74" s="10" t="n">
+        <v>44215</v>
+      </c>
+      <c r="M74" s="10" t="n">
+        <v>44580</v>
+      </c>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>רמי דוידי</t>
+        </is>
+      </c>
+      <c r="O74" s="2" t="str"/>
+      <c r="P74" s="5" t="str"/>
+      <c r="Q74" s="2" t="str"/>
+      <c r="R74" s="4" t="str"/>
+    </row>
+    <row r="75" ht="14.15" customHeight="1" s="9">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>מנשה שרון</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="n">
         <v>22451</v>
       </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>כריתה</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>כריתה</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>חברת חשמל לישראל</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>פינוי עץ מיידי</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>בטיחות,עצים מסוכנים</t>
         </is>
       </c>
-      <c r="G72" s="4" t="inlineStr">
+      <c r="G75" s="4" t="inlineStr">
         <is>
           <t>יערות קק"ל</t>
         </is>
       </c>
-      <c r="H72" s="2" t="str"/>
-      <c r="I72" s="5" t="str"/>
-      <c r="J72" s="5" t="str"/>
-      <c r="K72" s="6" t="str"/>
-      <c r="L72" s="10" t="n">
+      <c r="H75" s="2" t="str"/>
+      <c r="I75" s="5" t="str"/>
+      <c r="J75" s="5" t="str"/>
+      <c r="K75" s="6" t="str"/>
+      <c r="L75" s="10" t="n">
         <v>44215</v>
       </c>
-      <c r="M72" s="10" t="n">
+      <c r="M75" s="10" t="n">
         <v>44580</v>
       </c>
-      <c r="N72" s="2" t="inlineStr">
+      <c r="N75" s="2" t="inlineStr">
         <is>
           <t>רמי דוידי</t>
         </is>
       </c>
-      <c r="O72" s="2" t="str"/>
-      <c r="P72" s="5" t="str"/>
-      <c r="Q72" s="2" t="str"/>
-      <c r="R72" s="4" t="str"/>
-    </row>
-    <row r="73" ht="14.15" customHeight="1" s="9"/>
-    <row r="74" ht="13.9" customHeight="1" s="9"/>
-    <row r="75" ht="0.05" customHeight="1" s="9"/>
-    <row r="76" ht="73.15000000000001" customHeight="1" s="9"/>
+      <c r="O75" s="2" t="str"/>
+      <c r="P75" s="5" t="str"/>
+      <c r="Q75" s="2" t="str"/>
+      <c r="R75" s="4" t="str"/>
+    </row>
+    <row r="76" ht="14.2" customHeight="1" s="9"/>
+    <row r="77" ht="13.9" customHeight="1" s="9"/>
+    <row r="78" ht="73.15000000000001" customHeight="1" s="9"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup orientation="landscape" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/chashmal-after.xlsx
+++ b/chashmal-after.xlsx
@@ -1847,70 +1847,52 @@
     <row r="30" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">מנשה שרון</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B30">
-        <v>18856</v>
+        <v>13260</v>
       </c>
       <c s="2" t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">דילול וגיזום</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D30">
         <is>
-          <t xml:space="preserve">חברת  חשמל</t>
+          <t xml:space="preserve">חברת החשמל לישראל בעמ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F30">
-        <is>
-          <t xml:space="preserve">צמודים לקו מתח עליון</t>
-        </is>
-      </c>
+          <t xml:space="preserve">פניות מלקוחות חוץ</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F30"/>
       <c s="4" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">נתניה               </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H30">
-        <is>
-          <t xml:space="preserve">חורשת ותיקים צמוד לכביש 57</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יערות קק"ל</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H30"/>
       <c s="5" t="str" r="I30"/>
       <c s="5" t="str" r="J30"/>
       <c s="6" t="str" r="K30"/>
       <c s="7" r="L30">
-        <v>43573</v>
+        <v>44234</v>
       </c>
       <c s="7" r="M30">
-        <v>44304</v>
+        <v>44561</v>
       </c>
       <c s="2" t="inlineStr" r="N30">
         <is>
-          <t xml:space="preserve">סוהיל זיידן</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="O30">
-        <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
-        </is>
-      </c>
-      <c s="3" r="P30">
-        <v>46</v>
-      </c>
+          <t xml:space="preserve">גלעד מסטאי</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="O30"/>
+      <c s="5" t="str" r="P30"/>
       <c s="2" t="str" r="Q30"/>
-      <c s="4" t="inlineStr" r="R30">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R30"/>
     </row>
     <row r="31" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A31">
@@ -1971,12 +1953,12 @@
         </is>
       </c>
       <c s="3" r="P31">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c s="2" t="str" r="Q31"/>
       <c s="4" t="inlineStr" r="R31">
         <is>
-          <t xml:space="preserve">זרועות אקליפטוס לכריתה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1969,7 @@
         </is>
       </c>
       <c s="3" r="B32">
-        <v>19145</v>
+        <v>18856</v>
       </c>
       <c s="2" t="inlineStr" r="C32">
         <is>
@@ -1996,7 +1978,7 @@
       </c>
       <c s="2" t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">חברת חשמל (אהרון גבאי)</t>
+          <t xml:space="preserve">חברת  חשמל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E32">
@@ -2006,49 +1988,45 @@
       </c>
       <c s="2" t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">הקמת קו מתח </t>
+          <t xml:space="preserve">צמודים לקו מתח עליון</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">מעין צבי            </t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H32"/>
+          <t xml:space="preserve">נתניה               </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">חורשת ותיקים צמוד לכביש 57</t>
+        </is>
+      </c>
       <c s="5" t="str" r="I32"/>
-      <c s="5" t="inlineStr" r="J32">
-        <is>
-          <t xml:space="preserve">10948</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K32">
-        <is>
-          <t xml:space="preserve">53</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J32"/>
+      <c s="6" t="str" r="K32"/>
       <c s="7" r="L32">
-        <v>43682</v>
+        <v>43573</v>
       </c>
       <c s="7" r="M32">
-        <v>44413</v>
+        <v>44304</v>
       </c>
       <c s="2" t="inlineStr" r="N32">
         <is>
-          <t xml:space="preserve">רמי דוידי</t>
+          <t xml:space="preserve">סוהיל זיידן</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O32">
         <is>
-          <t xml:space="preserve">אשל החוף</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q32"/>
       <c s="4" t="inlineStr" r="R32">
         <is>
-          <t xml:space="preserve">10 דונם </t>
+          <t xml:space="preserve">זרועות אקליפטוס לכריתה</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2037,7 @@
         </is>
       </c>
       <c s="3" r="B33">
-        <v>19945</v>
+        <v>19145</v>
       </c>
       <c s="2" t="inlineStr" r="C33">
         <is>
@@ -2068,37 +2046,41 @@
       </c>
       <c s="2" t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">חברת החשמל לישראל</t>
+          <t xml:space="preserve">חברת חשמל (אהרון גבאי)</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F33"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">הקמת קו מתח </t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">חדרה                </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H33">
-        <is>
-          <t xml:space="preserve">תחנת הכוח אורות רבין</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מעין צבי            </t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H33"/>
       <c s="5" t="str" r="I33"/>
       <c s="5" t="inlineStr" r="J33">
         <is>
-          <t xml:space="preserve">10651-10649</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K33"/>
+          <t xml:space="preserve">10948</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">53</t>
+        </is>
+      </c>
       <c s="7" r="L33">
-        <v>43793</v>
+        <v>43682</v>
       </c>
       <c s="7" r="M33">
-        <v>44524</v>
+        <v>44413</v>
       </c>
       <c s="2" t="inlineStr" r="N33">
         <is>
@@ -2107,16 +2089,16 @@
       </c>
       <c s="2" t="inlineStr" r="O33">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">אשל החוף</t>
         </is>
       </c>
       <c s="3" r="P33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c s="2" t="str" r="Q33"/>
       <c s="4" t="inlineStr" r="R33">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">10 דונם </t>
         </is>
       </c>
     </row>
@@ -2175,11 +2157,11 @@
       </c>
       <c s="2" t="inlineStr" r="O34">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q34"/>
       <c s="4" t="inlineStr" r="R34">
@@ -2195,50 +2177,46 @@
         </is>
       </c>
       <c s="3" r="B35">
-        <v>19991</v>
+        <v>19945</v>
       </c>
       <c s="2" t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">חברת חשמל לישראל</t>
+          <t xml:space="preserve">חברת החשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F35">
-        <is>
-          <t xml:space="preserve">הנחת כבל חשמל</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F35"/>
       <c s="4" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">חריש                </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">הנחת כבל חשמל מתח גבוה בחריש</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I35">
-        <is>
-          <t xml:space="preserve">תכנית עבודה ח.צ 209625</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J35"/>
+          <t xml:space="preserve">תחנת הכוח אורות רבין</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I35"/>
+      <c s="5" t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">10651-10649</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K35"/>
       <c s="7" r="L35">
-        <v>43885</v>
+        <v>43793</v>
       </c>
       <c s="7" r="M35">
-        <v>44616</v>
+        <v>44524</v>
       </c>
       <c s="2" t="inlineStr" r="N35">
         <is>
@@ -2247,18 +2225,18 @@
       </c>
       <c s="2" t="inlineStr" r="O35">
         <is>
-          <t xml:space="preserve">אורן ירושלים</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P35">
-        <v>54</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q35">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R35"/>
+        <v>1</v>
+      </c>
+      <c s="2" t="str" r="Q35"/>
+      <c s="4" t="inlineStr" r="R35">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A36">
@@ -2319,11 +2297,11 @@
       </c>
       <c s="2" t="inlineStr" r="O36">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">אורן ירושלים</t>
         </is>
       </c>
       <c s="3" r="P36">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c s="2" t="inlineStr" r="Q36">
         <is>
@@ -2391,11 +2369,11 @@
       </c>
       <c s="2" t="inlineStr" r="O37">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c s="2" t="inlineStr" r="Q37">
         <is>
@@ -2463,11 +2441,11 @@
       </c>
       <c s="2" t="inlineStr" r="O38">
         <is>
-          <t xml:space="preserve">חרוב מצוי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P38">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c s="2" t="inlineStr" r="Q38">
         <is>
@@ -2483,7 +2461,7 @@
         </is>
       </c>
       <c s="3" r="B39">
-        <v>20943</v>
+        <v>19991</v>
       </c>
       <c s="2" t="inlineStr" r="C39">
         <is>
@@ -2492,37 +2470,41 @@
       </c>
       <c s="2" t="inlineStr" r="D39">
         <is>
-          <t xml:space="preserve">חברת חשמל בע"מ</t>
+          <t xml:space="preserve">חברת חשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F39"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">הנחת כבל חשמל</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">חריש                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">תחנת כח אורות רבין </t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I39"/>
-      <c s="5" t="inlineStr" r="J39">
-        <is>
-          <t xml:space="preserve">10651,10649</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הנחת כבל חשמל מתח גבוה בחריש</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">תכנית עבודה ח.צ 209625</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J39"/>
       <c s="6" t="str" r="K39"/>
       <c s="7" r="L39">
-        <v>43913</v>
+        <v>43885</v>
       </c>
       <c s="7" r="M39">
-        <v>44643</v>
+        <v>44616</v>
       </c>
       <c s="2" t="inlineStr" r="N39">
         <is>
@@ -2531,11 +2513,11 @@
       </c>
       <c s="2" t="inlineStr" r="O39">
         <is>
-          <t xml:space="preserve">אקליפטוסים</t>
+          <t xml:space="preserve">חרוב מצוי</t>
         </is>
       </c>
       <c s="3" r="P39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q39">
         <is>
@@ -2599,11 +2581,11 @@
       </c>
       <c s="2" t="inlineStr" r="O40">
         <is>
-          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
+          <t xml:space="preserve">אקליפטוסים</t>
         </is>
       </c>
       <c s="3" r="P40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q40">
         <is>
@@ -2667,11 +2649,11 @@
       </c>
       <c s="2" t="inlineStr" r="O41">
         <is>
-          <t xml:space="preserve">פלפלון דמוי-אלה</t>
+          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
         </is>
       </c>
       <c s="3" r="P41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="2" t="inlineStr" r="Q41">
         <is>
@@ -2735,11 +2717,11 @@
       </c>
       <c s="2" t="inlineStr" r="O42">
         <is>
-          <t xml:space="preserve">ינבוט לבן</t>
+          <t xml:space="preserve">פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c s="3" r="P42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q42">
         <is>
@@ -2803,15 +2785,15 @@
       </c>
       <c s="2" t="inlineStr" r="O43">
         <is>
-          <t xml:space="preserve">תות לבן</t>
+          <t xml:space="preserve">ינבוט לבן</t>
         </is>
       </c>
       <c s="3" r="P43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c s="2" t="inlineStr" r="Q43">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R43"/>
@@ -2871,11 +2853,11 @@
       </c>
       <c s="2" t="inlineStr" r="O44">
         <is>
-          <t xml:space="preserve">אשל הפרקים</t>
+          <t xml:space="preserve">תות לבן</t>
         </is>
       </c>
       <c s="3" r="P44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c s="2" t="inlineStr" r="Q44">
         <is>
@@ -2943,11 +2925,11 @@
         </is>
       </c>
       <c s="3" r="P45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="2" t="inlineStr" r="Q45">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R45"/>
@@ -3007,15 +2989,15 @@
       </c>
       <c s="2" t="inlineStr" r="O46">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">אשל הפרקים</t>
         </is>
       </c>
       <c s="3" r="P46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q46">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R46"/>
@@ -3075,7 +3057,7 @@
       </c>
       <c s="2" t="inlineStr" r="O47">
         <is>
-          <t xml:space="preserve">חרוב מצוי</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P47">
@@ -3083,7 +3065,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q47">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R47"/>
@@ -3143,7 +3125,7 @@
       </c>
       <c s="2" t="inlineStr" r="O48">
         <is>
-          <t xml:space="preserve">פיקוס התאנה</t>
+          <t xml:space="preserve">חרוב מצוי</t>
         </is>
       </c>
       <c s="3" r="P48">
@@ -3151,7 +3133,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q48">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R48"/>
@@ -3211,22 +3193,18 @@
       </c>
       <c s="2" t="inlineStr" r="O49">
         <is>
-          <t xml:space="preserve">קופרניסיה לבנה</t>
+          <t xml:space="preserve">פיקוס התאנה</t>
         </is>
       </c>
       <c s="3" r="P49">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q49">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R49">
-        <is>
-          <t xml:space="preserve">קופניון אנקרדי</t>
-        </is>
-      </c>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R49"/>
     </row>
     <row r="50" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A50">
@@ -3283,18 +3261,22 @@
       </c>
       <c s="2" t="inlineStr" r="O50">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">קופרניסיה לבנה</t>
         </is>
       </c>
       <c s="3" r="P50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c s="2" t="inlineStr" r="Q50">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R50"/>
+      <c s="4" t="inlineStr" r="R50">
+        <is>
+          <t xml:space="preserve">קופניון אנקרדי</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A51">
@@ -3351,11 +3333,11 @@
       </c>
       <c s="2" t="inlineStr" r="O51">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P51">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q51">
         <is>
@@ -3419,15 +3401,15 @@
       </c>
       <c s="2" t="inlineStr" r="O52">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P52">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c s="2" t="inlineStr" r="Q52">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R52"/>
@@ -3491,18 +3473,14 @@
         </is>
       </c>
       <c s="3" r="P53">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c s="2" t="inlineStr" r="Q53">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R53">
-        <is>
-          <t xml:space="preserve">עץ מס' 615 נוסף לכריתה בתאריך 3/1/21</t>
-        </is>
-      </c>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R53"/>
     </row>
     <row r="54" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A54">
@@ -3559,18 +3537,22 @@
       </c>
       <c s="2" t="inlineStr" r="O54">
         <is>
-          <t xml:space="preserve">אלמוגן רחב-עלים</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q54">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="str" r="R54"/>
+      <c s="4" t="inlineStr" r="R54">
+        <is>
+          <t xml:space="preserve">עץ מס' 615 נוסף לכריתה בתאריך 3/1/21</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A55">
@@ -3635,7 +3617,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q55">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R55"/>
@@ -3695,7 +3677,7 @@
       </c>
       <c s="2" t="inlineStr" r="O56">
         <is>
-          <t xml:space="preserve">גואיבה מצויה</t>
+          <t xml:space="preserve">אלמוגן רחב-עלים</t>
         </is>
       </c>
       <c s="3" r="P56">
@@ -3703,7 +3685,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q56">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R56"/>
@@ -3763,11 +3745,11 @@
       </c>
       <c s="2" t="inlineStr" r="O57">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">גואיבה מצויה</t>
         </is>
       </c>
       <c s="3" r="P57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q57">
         <is>
@@ -3831,7 +3813,7 @@
       </c>
       <c s="2" t="inlineStr" r="O58">
         <is>
-          <t xml:space="preserve">פיקוס הגומי</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P58">
@@ -3899,11 +3881,11 @@
       </c>
       <c s="2" t="inlineStr" r="O59">
         <is>
-          <t xml:space="preserve">פיקוס מעוקם</t>
+          <t xml:space="preserve">פיקוס הגומי</t>
         </is>
       </c>
       <c s="3" r="P59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q59">
         <is>
@@ -3971,11 +3953,11 @@
         </is>
       </c>
       <c s="3" r="P60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q60">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R60"/>
@@ -4035,11 +4017,11 @@
       </c>
       <c s="2" t="inlineStr" r="O61">
         <is>
-          <t xml:space="preserve">פיקוס קדוש</t>
+          <t xml:space="preserve">פיקוס מעוקם</t>
         </is>
       </c>
       <c s="3" r="P61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q61">
         <is>
@@ -4107,11 +4089,11 @@
         </is>
       </c>
       <c s="3" r="P62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q62">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R62"/>
@@ -4171,11 +4153,11 @@
       </c>
       <c s="2" t="inlineStr" r="O63">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">פיקוס קדוש</t>
         </is>
       </c>
       <c s="3" r="P63">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q63">
         <is>
@@ -4239,11 +4221,11 @@
       </c>
       <c s="2" t="inlineStr" r="O64">
         <is>
-          <t xml:space="preserve">שפלרה מקרינה</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P64">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c s="2" t="inlineStr" r="Q64">
         <is>
@@ -4307,15 +4289,15 @@
       </c>
       <c s="2" t="inlineStr" r="O65">
         <is>
-          <t xml:space="preserve">פלומריה ריחנית</t>
+          <t xml:space="preserve">שפלרה מקרינה</t>
         </is>
       </c>
       <c s="3" r="P65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q65">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R65"/>
@@ -4375,15 +4357,15 @@
       </c>
       <c s="2" t="inlineStr" r="O66">
         <is>
-          <t xml:space="preserve">צחר כחלחל</t>
+          <t xml:space="preserve">פלומריה ריחנית</t>
         </is>
       </c>
       <c s="3" r="P66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="2" t="inlineStr" r="Q66">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R66"/>
@@ -4443,7 +4425,7 @@
       </c>
       <c s="2" t="inlineStr" r="O67">
         <is>
-          <t xml:space="preserve">קליסטמון אדום</t>
+          <t xml:space="preserve">צחר כחלחל</t>
         </is>
       </c>
       <c s="3" r="P67">
@@ -4463,46 +4445,46 @@
         </is>
       </c>
       <c s="3" r="B68">
-        <v>21114</v>
+        <v>20943</v>
       </c>
       <c s="2" t="inlineStr" r="C68">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D68">
         <is>
-          <t xml:space="preserve">קק"ל יער קאסם ( חברת החשמל )</t>
+          <t xml:space="preserve">חברת חשמל בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F68">
-        <is>
-          <t xml:space="preserve">הפרעה לקו מתח עליון </t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F68"/>
       <c s="4" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">יער קקל</t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">יער קאסם </t>
+          <t xml:space="preserve">תחנת כח אורות רבין </t>
         </is>
       </c>
       <c s="5" t="str" r="I68"/>
-      <c s="5" t="str" r="J68"/>
+      <c s="5" t="inlineStr" r="J68">
+        <is>
+          <t xml:space="preserve">10651,10649</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K68"/>
       <c s="7" r="L68">
-        <v>43943</v>
+        <v>43913</v>
       </c>
       <c s="7" r="M68">
-        <v>44308</v>
+        <v>44643</v>
       </c>
       <c s="2" t="inlineStr" r="N68">
         <is>
@@ -4511,18 +4493,18 @@
       </c>
       <c s="2" t="inlineStr" r="O68">
         <is>
-          <t xml:space="preserve">אורנים</t>
+          <t xml:space="preserve">קליסטמון אדום</t>
         </is>
       </c>
       <c s="3" r="P68">
-        <v>11</v>
-      </c>
-      <c s="2" t="str" r="Q68"/>
-      <c s="4" t="inlineStr" r="R68">
-        <is>
-          <t xml:space="preserve">ליד עמוד 1239</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q68">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R68"/>
     </row>
     <row r="69" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A69">
@@ -4583,12 +4565,12 @@
         </is>
       </c>
       <c s="3" r="P69">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c s="2" t="str" r="Q69"/>
       <c s="4" t="inlineStr" r="R69">
         <is>
-          <t xml:space="preserve">ליד עמוד 1240</t>
+          <t xml:space="preserve">ליד עמוד 1239</t>
         </is>
       </c>
     </row>
@@ -4647,16 +4629,16 @@
       </c>
       <c s="2" t="inlineStr" r="O70">
         <is>
-          <t xml:space="preserve">ברושים</t>
+          <t xml:space="preserve">אורנים</t>
         </is>
       </c>
       <c s="3" r="P70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q70"/>
       <c s="4" t="inlineStr" r="R70">
         <is>
-          <t xml:space="preserve">ליד עמוד 1239</t>
+          <t xml:space="preserve">ליד עמוד 1240</t>
         </is>
       </c>
     </row>
@@ -4715,11 +4697,11 @@
       </c>
       <c s="2" t="inlineStr" r="O71">
         <is>
-          <t xml:space="preserve">שיטה כחלחלה</t>
+          <t xml:space="preserve">ברושים</t>
         </is>
       </c>
       <c s="3" r="P71">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q71"/>
       <c s="4" t="inlineStr" r="R71">
@@ -4735,7 +4717,7 @@
         </is>
       </c>
       <c s="3" r="B72">
-        <v>21360</v>
+        <v>21114</v>
       </c>
       <c s="2" t="inlineStr" r="C72">
         <is>
@@ -4744,41 +4726,37 @@
       </c>
       <c s="2" t="inlineStr" r="D72">
         <is>
-          <t xml:space="preserve">חברת החשמל לישראל</t>
+          <t xml:space="preserve">קק"ל יער קאסם ( חברת החשמל )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">אחר</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F72">
         <is>
-          <t xml:space="preserve">בניית עמוד קו 400</t>
+          <t xml:space="preserve">הפרעה לקו מתח עליון </t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">רגבים               </t>
+          <t xml:space="preserve">יער קקל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">יער עירון - עמוד חשמל 41439</t>
+          <t xml:space="preserve">יער קאסם </t>
         </is>
       </c>
       <c s="5" t="str" r="I72"/>
       <c s="5" t="str" r="J72"/>
-      <c s="6" t="inlineStr" r="K72">
-        <is>
-          <t xml:space="preserve">7 עומד 116</t>
-        </is>
-      </c>
+      <c s="6" t="str" r="K72"/>
       <c s="7" r="L72">
-        <v>44077</v>
+        <v>43943</v>
       </c>
       <c s="7" r="M72">
-        <v>44444</v>
+        <v>44308</v>
       </c>
       <c s="2" t="inlineStr" r="N72">
         <is>
@@ -4787,16 +4765,16 @@
       </c>
       <c s="2" t="inlineStr" r="O72">
         <is>
-          <t xml:space="preserve">ברושים</t>
+          <t xml:space="preserve">שיטה כחלחלה</t>
         </is>
       </c>
       <c s="3" r="P72">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c s="2" t="str" r="Q72"/>
       <c s="4" t="inlineStr" r="R72">
         <is>
-          <t xml:space="preserve">כריתה </t>
+          <t xml:space="preserve">ליד עמוד 1239</t>
         </is>
       </c>
     </row>
@@ -4807,16 +4785,16 @@
         </is>
       </c>
       <c s="3" r="B73">
-        <v>22332</v>
+        <v>21360</v>
       </c>
       <c s="2" t="inlineStr" r="C73">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve">חברת חשמל</t>
+          <t xml:space="preserve">חברת החשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E73">
@@ -4826,39 +4804,31 @@
       </c>
       <c s="2" t="inlineStr" r="F73">
         <is>
-          <t xml:space="preserve">תכנית פיתוח והקמת תחנת כח.</t>
+          <t xml:space="preserve">בניית עמוד קו 400</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">רגבים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">קו דלק צינור תשן מחלף קיסריה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I73">
-        <is>
-          <t xml:space="preserve">12</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J73">
-        <is>
-          <t xml:space="preserve">10652</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יער עירון - עמוד חשמל 41439</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I73"/>
+      <c s="5" t="str" r="J73"/>
       <c s="6" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">1</t>
+          <t xml:space="preserve">7 עומד 116</t>
         </is>
       </c>
       <c s="7" r="L73">
-        <v>44229</v>
+        <v>44077</v>
       </c>
       <c s="7" r="M73">
-        <v>44959</v>
+        <v>44444</v>
       </c>
       <c s="2" t="inlineStr" r="N73">
         <is>
@@ -4867,20 +4837,16 @@
       </c>
       <c s="2" t="inlineStr" r="O73">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">ברושים</t>
         </is>
       </c>
       <c s="3" r="P73">
-        <v>7</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q73">
-        <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
+        <v>50</v>
+      </c>
+      <c s="2" t="str" r="Q73"/>
       <c s="4" t="inlineStr" r="R73">
         <is>
-          <t xml:space="preserve">להעתקה</t>
+          <t xml:space="preserve">כריתה </t>
         </is>
       </c>
     </row>
@@ -4951,20 +4917,20 @@
       </c>
       <c s="2" t="inlineStr" r="O74">
         <is>
-          <t xml:space="preserve">חרוב מצוי</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="2" t="inlineStr" r="Q74">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="R74">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">להעתקה</t>
         </is>
       </c>
     </row>
@@ -4975,52 +4941,82 @@
         </is>
       </c>
       <c s="3" r="B75">
-        <v>22450</v>
+        <v>22332</v>
       </c>
       <c s="2" t="inlineStr" r="C75">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve">חברת חשמל לישראל</t>
+          <t xml:space="preserve">חברת חשמל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">פינוי עץ מיידי</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F75">
         <is>
-          <t xml:space="preserve">בטיחות עצים מסוכנים</t>
+          <t xml:space="preserve">תכנית פיתוח והקמת תחנת כח.</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">יערות קק"ל</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H75"/>
-      <c s="5" t="str" r="I75"/>
-      <c s="5" t="str" r="J75"/>
-      <c s="6" t="str" r="K75"/>
+          <t xml:space="preserve">חדרה                </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H75">
+        <is>
+          <t xml:space="preserve">קו דלק צינור תשן מחלף קיסריה</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I75">
+        <is>
+          <t xml:space="preserve">12</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J75">
+        <is>
+          <t xml:space="preserve">10652</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K75">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
       <c s="7" r="L75">
-        <v>44215</v>
+        <v>44229</v>
       </c>
       <c s="7" r="M75">
-        <v>44580</v>
+        <v>44959</v>
       </c>
       <c s="2" t="inlineStr" r="N75">
         <is>
           <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
-      <c s="2" t="str" r="O75"/>
-      <c s="5" t="str" r="P75"/>
-      <c s="2" t="str" r="Q75"/>
-      <c s="4" t="str" r="R75"/>
+      <c s="2" t="inlineStr" r="O75">
+        <is>
+          <t xml:space="preserve">חרוב מצוי</t>
+        </is>
+      </c>
+      <c s="3" r="P75">
+        <v>2</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q75">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R75">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A76">
@@ -5029,7 +5025,7 @@
         </is>
       </c>
       <c s="3" r="B76">
-        <v>22451</v>
+        <v>22450</v>
       </c>
       <c s="2" t="inlineStr" r="C76">
         <is>
@@ -5048,7 +5044,7 @@
       </c>
       <c s="2" t="inlineStr" r="F76">
         <is>
-          <t xml:space="preserve">בטיחות,עצים מסוכנים</t>
+          <t xml:space="preserve">בטיחות עצים מסוכנים</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G76">
@@ -5076,104 +5072,159 @@
       <c s="2" t="str" r="Q76"/>
       <c s="4" t="str" r="R76"/>
     </row>
-    <row r="77" ht="13.9" customHeight="0">
-      <c s="8" t="inlineStr" r="A77">
+    <row r="77" ht="14.15" customHeight="0">
+      <c s="2" t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve">מנשה שרון</t>
+        </is>
+      </c>
+      <c s="3" r="B77">
+        <v>22451</v>
+      </c>
+      <c s="2" t="inlineStr" r="C77">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="D77">
+        <is>
+          <t xml:space="preserve">חברת חשמל לישראל</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="E77">
+        <is>
+          <t xml:space="preserve">פינוי עץ מיידי</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F77">
+        <is>
+          <t xml:space="preserve">בטיחות,עצים מסוכנים</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="G77">
+        <is>
+          <t xml:space="preserve">יערות קק"ל</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H77"/>
+      <c s="5" t="str" r="I77"/>
+      <c s="5" t="str" r="J77"/>
+      <c s="6" t="str" r="K77"/>
+      <c s="7" r="L77">
+        <v>44215</v>
+      </c>
+      <c s="7" r="M77">
+        <v>44580</v>
+      </c>
+      <c s="2" t="inlineStr" r="N77">
+        <is>
+          <t xml:space="preserve">רמי דוידי</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="O77"/>
+      <c s="5" t="str" r="P77"/>
+      <c s="2" t="str" r="Q77"/>
+      <c s="4" t="str" r="R77"/>
+    </row>
+    <row r="78" ht="13.9" customHeight="0">
+      <c s="8" t="inlineStr" r="A78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="B77">
+      <c s="8" t="inlineStr" r="B78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="C77">
+      <c s="8" t="inlineStr" r="C78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="D77">
+      <c s="8" t="inlineStr" r="D78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="E77">
+      <c s="8" t="inlineStr" r="E78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="F77">
+      <c s="8" t="inlineStr" r="F78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="G77">
+      <c s="8" t="inlineStr" r="G78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="H77">
+      <c s="8" t="inlineStr" r="H78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="I77">
+      <c s="8" t="inlineStr" r="I78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="J77">
+      <c s="8" t="inlineStr" r="J78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="K77">
+      <c s="8" t="inlineStr" r="K78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="L77">
+      <c s="8" t="inlineStr" r="L78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="M77">
+      <c s="8" t="inlineStr" r="M78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="N77">
+      <c s="8" t="inlineStr" r="N78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="O77">
+      <c s="8" t="inlineStr" r="O78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="P77">
+      <c s="8" t="inlineStr" r="P78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="Q77">
+      <c s="8" t="inlineStr" r="Q78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="R77">
+      <c s="8" t="inlineStr" r="R78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="S77">
+      <c s="8" t="inlineStr" r="S78">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
     </row>
-    <row r="78" ht="73.15" customHeight="1"/>
+    <row r="79" ht="0.05" customHeight="1"/>
+    <row r="80" ht="73.15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5417,13 +5468,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C0A0F66-07F5-448E-A2E2-E7AFE6175AD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C48DC6-CC82-46F1-95E1-C92C21484472}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401DCCEB-9473-43EB-A88B-416CCC8DFD8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13B1DC33-64ED-4735-AE54-6E3C6459B8FE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6310117A-A101-4F26-B09F-55456D8410A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD5C3A2-0EA7-4659-9443-B1A32AD55E7D}"/>
 </file>
--- a/chashmal-after.xlsx
+++ b/chashmal-after.xlsx
@@ -5468,13 +5468,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C48DC6-CC82-46F1-95E1-C92C21484472}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983ADDBC-508F-4234-9AF3-571EDAB387F1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13B1DC33-64ED-4735-AE54-6E3C6459B8FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CF708A4-D31D-4F61-B9FA-0862205776E0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD5C3A2-0EA7-4659-9443-B1A32AD55E7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB63240F-57F5-49E9-9710-F5C83D622B48}"/>
 </file>
--- a/chashmal-after.xlsx
+++ b/chashmal-after.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="145">
   <si>
     <t>אזור</t>
   </si>
@@ -138,6 +138,36 @@
     <t>בוריס וולודרסקי</t>
   </si>
   <si>
+    <t>ג. עליון ורמת הגולן</t>
+  </si>
+  <si>
+    <t>העתקה</t>
+  </si>
+  <si>
+    <t>אילון חברת חשמל</t>
+  </si>
+  <si>
+    <t>אחר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הנחת  עמוד חשמל </t>
+  </si>
+  <si>
+    <t>סלמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואדי סלאמה </t>
+  </si>
+  <si>
+    <t>אלי חפוטה</t>
+  </si>
+  <si>
+    <t>זית אירופי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">העתקה </t>
+  </si>
+  <si>
     <t>ג. תחתון - גלבוע</t>
   </si>
   <si>
@@ -204,9 +234,6 @@
     <t>חברת  חשמל</t>
   </si>
   <si>
-    <t>אחר</t>
-  </si>
-  <si>
     <t>צמודים לקו מתח עליון</t>
   </si>
   <si>
@@ -312,13 +339,7 @@
     <t>תות לבן</t>
   </si>
   <si>
-    <t>העתקה</t>
-  </si>
-  <si>
     <t>אשל הפרקים</t>
-  </si>
-  <si>
-    <t>זית אירופי</t>
   </si>
   <si>
     <t>פיקוס התאנה</t>
@@ -926,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
@@ -1795,115 +1816,121 @@
         <v>39</v>
       </c>
       <c r="B22" s="3">
-        <v>4814</v>
+        <v>4364</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="7">
-        <v>43991</v>
+        <v>44242</v>
       </c>
       <c r="M22" s="7">
-        <v>44934</v>
+        <v>44255</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P22" s="3">
         <v>3</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3">
-        <v>5287</v>
+        <v>4814</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L23" s="7">
-        <v>44197</v>
+        <v>43991</v>
       </c>
       <c r="M23" s="7">
-        <v>44561</v>
+        <v>44934</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3">
-        <v>5288</v>
+        <v>5287</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1915,7 +1942,7 @@
         <v>44561</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="5"/>
@@ -1924,28 +1951,28 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
-        <v>5289</v>
+        <v>5288</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1957,7 +1984,7 @@
         <v>44561</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="5"/>
@@ -1966,25 +1993,29 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
-        <v>13064</v>
+        <v>5289</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
@@ -1995,7 +2026,7 @@
         <v>44561</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="5"/>
@@ -2004,13 +2035,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3">
-        <v>13065</v>
+        <v>13064</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
@@ -2033,7 +2064,7 @@
         <v>44561</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="5"/>
@@ -2042,13 +2073,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3">
-        <v>13066</v>
+        <v>13065</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
@@ -2071,7 +2102,7 @@
         <v>44561</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="5"/>
@@ -2080,13 +2111,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B29" s="3">
-        <v>13067</v>
+        <v>13066</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>20</v>
@@ -2109,7 +2140,7 @@
         <v>44561</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="5"/>
@@ -2118,13 +2149,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3">
-        <v>13068</v>
+        <v>13067</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
@@ -2147,7 +2178,7 @@
         <v>44561</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="5"/>
@@ -2156,16 +2187,16 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3">
-        <v>13260</v>
+        <v>13068</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>37</v>
@@ -2179,13 +2210,13 @@
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7">
-        <v>44234</v>
+        <v>44197</v>
       </c>
       <c r="M31" s="7">
         <v>44561</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="5"/>
@@ -2194,55 +2225,45 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3">
-        <v>18856</v>
+        <v>13260</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7">
-        <v>43573</v>
+        <v>44234</v>
       </c>
       <c r="M32" s="7">
-        <v>44304</v>
+        <v>44561</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="3">
-        <v>46</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>18856</v>
@@ -2251,19 +2272,19 @@
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2275,120 +2296,120 @@
         <v>44304</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P33" s="3">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3">
-        <v>19145</v>
+        <v>18856</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="7">
-        <v>43682</v>
+        <v>43573</v>
       </c>
       <c r="M34" s="7">
-        <v>44413</v>
+        <v>44304</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P34" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
-        <v>19945</v>
+        <v>19145</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="L35" s="7">
-        <v>43793</v>
+        <v>43682</v>
       </c>
       <c r="M35" s="7">
-        <v>44524</v>
+        <v>44413</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P35" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="4" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3">
         <v>19945</v>
@@ -2397,21 +2418,21 @@
         <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="7">
@@ -2421,96 +2442,94 @@
         <v>44524</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3">
-        <v>19991</v>
+        <v>19945</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="7">
-        <v>43885</v>
+        <v>43793</v>
       </c>
       <c r="M37" s="7">
-        <v>44616</v>
+        <v>44524</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="P37" s="3">
-        <v>54</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3">
         <v>19991</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
@@ -2521,13 +2540,13 @@
         <v>44616</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P38" s="3">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>19</v>
@@ -2536,31 +2555,31 @@
     </row>
     <row r="39" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3">
         <v>19991</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
@@ -2571,13 +2590,13 @@
         <v>44616</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P39" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>19</v>
@@ -2586,31 +2605,31 @@
     </row>
     <row r="40" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3">
         <v>19991</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
@@ -2621,61 +2640,63 @@
         <v>44616</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="P40" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3">
-        <v>20943</v>
+        <v>19991</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G41" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="7">
-        <v>43913</v>
+        <v>43885</v>
       </c>
       <c r="M41" s="7">
-        <v>44643</v>
+        <v>44616</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>19</v>
@@ -2684,30 +2705,30 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3">
         <v>20943</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="7">
@@ -2717,13 +2738,13 @@
         <v>44643</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P42" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>19</v>
@@ -2732,30 +2753,30 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3">
         <v>20943</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="7">
@@ -2765,13 +2786,13 @@
         <v>44643</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P43" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>19</v>
@@ -2780,30 +2801,30 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B44" s="3">
         <v>20943</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="7">
@@ -2813,13 +2834,13 @@
         <v>44643</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P44" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>19</v>
@@ -2828,30 +2849,30 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B45" s="3">
         <v>20943</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="7">
@@ -2861,45 +2882,45 @@
         <v>44643</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P45" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B46" s="3">
         <v>20943</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="7">
@@ -2909,45 +2930,45 @@
         <v>44643</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P46" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B47" s="3">
         <v>20943</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="7">
@@ -2957,45 +2978,45 @@
         <v>44643</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P47" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B48" s="3">
         <v>20943</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="7">
@@ -3005,45 +3026,45 @@
         <v>44643</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B49" s="3">
         <v>20943</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="7">
@@ -3053,45 +3074,45 @@
         <v>44643</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P49" s="3">
         <v>2</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B50" s="3">
         <v>20943</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="7">
@@ -3101,45 +3122,45 @@
         <v>44643</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P50" s="3">
         <v>2</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B51" s="3">
         <v>20943</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="7">
@@ -3149,47 +3170,45 @@
         <v>44643</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P51" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B52" s="3">
         <v>20943</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="7">
@@ -3199,45 +3218,47 @@
         <v>44643</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P52" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="4"/>
+      <c r="R52" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3">
         <v>20943</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="7">
@@ -3247,13 +3268,13 @@
         <v>44643</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="P53" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>19</v>
@@ -3262,30 +3283,30 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3">
         <v>20943</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="7">
@@ -3295,45 +3316,45 @@
         <v>44643</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P54" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>20943</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="7">
@@ -3343,47 +3364,45 @@
         <v>44643</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P55" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
         <v>20943</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="7">
@@ -3393,45 +3412,47 @@
         <v>44643</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="P56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R56" s="4"/>
+      <c r="R56" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3">
         <v>20943</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="7">
@@ -3441,45 +3462,45 @@
         <v>44643</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P57" s="3">
         <v>2</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3">
         <v>20943</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="7">
@@ -3489,45 +3510,45 @@
         <v>44643</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P58" s="3">
         <v>2</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
         <v>20943</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="7">
@@ -3537,13 +3558,13 @@
         <v>44643</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>19</v>
@@ -3552,30 +3573,30 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>20943</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="7">
@@ -3585,10 +3606,10 @@
         <v>44643</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P60" s="3">
         <v>1</v>
@@ -3600,30 +3621,30 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3">
         <v>20943</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="7">
@@ -3633,13 +3654,13 @@
         <v>44643</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>19</v>
@@ -3648,30 +3669,30 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B62" s="3">
         <v>20943</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="7">
@@ -3681,45 +3702,45 @@
         <v>44643</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P62" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3">
         <v>20943</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7">
@@ -3729,45 +3750,45 @@
         <v>44643</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B64" s="3">
         <v>20943</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="7">
@@ -3777,45 +3798,45 @@
         <v>44643</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P64" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3">
         <v>20943</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="7">
@@ -3825,13 +3846,13 @@
         <v>44643</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P65" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>19</v>
@@ -3840,30 +3861,30 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B66" s="3">
         <v>20943</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="7">
@@ -3873,13 +3894,13 @@
         <v>44643</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P66" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>19</v>
@@ -3888,30 +3909,30 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3">
         <v>20943</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="7">
@@ -3921,45 +3942,45 @@
         <v>44643</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P67" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>20943</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="7">
@@ -3969,45 +3990,45 @@
         <v>44643</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P68" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3">
         <v>20943</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="7">
@@ -4017,10 +4038,10 @@
         <v>44643</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P69" s="3">
         <v>3</v>
@@ -4032,55 +4053,55 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>21114</v>
+        <v>20943</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="K70" s="6"/>
       <c r="L70" s="7">
-        <v>43943</v>
+        <v>43913</v>
       </c>
       <c r="M70" s="7">
-        <v>44308</v>
+        <v>44643</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P70" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>21114</v>
@@ -4089,19 +4110,19 @@
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -4113,22 +4134,22 @@
         <v>44308</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P71" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3">
         <v>21114</v>
@@ -4137,19 +4158,19 @@
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -4161,22 +4182,22 @@
         <v>44308</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="P72" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3">
         <v>21114</v>
@@ -4185,19 +4206,19 @@
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -4209,158 +4230,150 @@
         <v>44308</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P73" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B74" s="3">
-        <v>21360</v>
+        <v>21114</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="K74" s="6"/>
       <c r="L74" s="7">
-        <v>44077</v>
+        <v>43943</v>
       </c>
       <c r="M74" s="7">
-        <v>44444</v>
+        <v>44308</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P74" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B75" s="3">
-        <v>22332</v>
+        <v>21360</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L75" s="7">
-        <v>44229</v>
+        <v>44077</v>
       </c>
       <c r="M75" s="7">
-        <v>44959</v>
+        <v>44444</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="P75" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Q75" s="2"/>
       <c r="R75" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B76" s="3">
         <v>22332</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L76" s="7">
         <v>44229</v>
@@ -4369,79 +4382,95 @@
         <v>44959</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P76" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3">
-        <v>22450</v>
+        <v>22332</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>135</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="L77" s="7">
-        <v>44215</v>
+        <v>44229</v>
       </c>
       <c r="M77" s="7">
-        <v>44580</v>
+        <v>44959</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B78" s="3">
-        <v>22451</v>
+        <v>22450</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>23</v>
@@ -4457,7 +4486,7 @@
         <v>44580</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="5"/>
@@ -4465,65 +4494,106 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="P79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="R79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S79" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="73.2" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="3">
+        <v>22451</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7">
+        <v>44215</v>
+      </c>
+      <c r="M79" s="7">
+        <v>44580</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S80" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="73.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -4767,13 +4837,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40B2E0F-5D61-450F-B049-D51B23B79BCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23A0B3C-9DE1-4B05-8174-B7D1DD2D53D6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3DD957-EA60-442D-95CA-A579F2E654C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EA7827E-9E2B-40B2-B101-BAC646D74271}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782A329C-2B73-4453-B4D7-DD6046149FFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{183A6B21-E9F2-4C80-AABB-3D364D34533E}"/>
 </file>
--- a/chashmal-after.xlsx
+++ b/chashmal-after.xlsx
@@ -1409,70 +1409,70 @@
     <row r="22" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">ג. עליון ורמת הגולן</t>
+          <t xml:space="preserve">ג. תחתון - גלבוע</t>
         </is>
       </c>
       <c s="3" r="B22">
-        <v>4364</v>
+        <v>4814</v>
       </c>
       <c s="2" t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D22">
         <is>
-          <t xml:space="preserve">אילון חברת חשמל</t>
+          <t xml:space="preserve">חברת חשמל לישראל בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F22">
-        <is>
-          <t xml:space="preserve">הנחת  עמוד חשמל </t>
-        </is>
-      </c>
+          <t xml:space="preserve">בטיחות</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F22"/>
       <c s="4" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">סלמה</t>
+          <t xml:space="preserve">כבישים</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">ואדי סלאמה </t>
+          <t xml:space="preserve">כביש 77 בא.ת ציפורית</t>
         </is>
       </c>
       <c s="5" t="str" r="I22"/>
-      <c s="5" t="str" r="J22"/>
-      <c s="6" t="str" r="K22"/>
+      <c s="5" t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">17463</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">55</t>
+        </is>
+      </c>
       <c s="7" r="L22">
-        <v>44242</v>
+        <v>43991</v>
       </c>
       <c s="7" r="M22">
-        <v>44255</v>
+        <v>44934</v>
       </c>
       <c s="2" t="inlineStr" r="N22">
         <is>
-          <t xml:space="preserve">אלי חפוטה</t>
+          <t xml:space="preserve">גיל עצמון</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O22">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">ברושים</t>
         </is>
       </c>
       <c s="3" r="P22">
         <v>3</v>
       </c>
       <c s="2" t="str" r="Q22"/>
-      <c s="4" t="inlineStr" r="R22">
-        <is>
-          <t xml:space="preserve">העתקה </t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R22"/>
     </row>
     <row r="23" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A23">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c s="3" r="B23">
-        <v>4814</v>
+        <v>5287</v>
       </c>
       <c s="2" t="inlineStr" r="C23">
         <is>
@@ -1490,7 +1490,7 @@
       </c>
       <c s="2" t="inlineStr" r="D23">
         <is>
-          <t xml:space="preserve">חברת חשמל לישראל בע"מ</t>
+          <t xml:space="preserve">חברת חשמל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E23">
@@ -1498,47 +1498,37 @@
           <t xml:space="preserve">בטיחות</t>
         </is>
       </c>
-      <c s="2" t="str" r="F23"/>
+      <c s="2" t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">עצים מסוכנים</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">כבישים</t>
+          <t xml:space="preserve">יער ציפורי          </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">כביש 77 בא.ת ציפורית</t>
+          <t xml:space="preserve">יערות גוש נצרת</t>
         </is>
       </c>
       <c s="5" t="str" r="I23"/>
-      <c s="5" t="inlineStr" r="J23">
-        <is>
-          <t xml:space="preserve">17463</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K23">
-        <is>
-          <t xml:space="preserve">55</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J23"/>
+      <c s="6" t="str" r="K23"/>
       <c s="7" r="L23">
-        <v>43991</v>
+        <v>44197</v>
       </c>
       <c s="7" r="M23">
-        <v>44934</v>
+        <v>44561</v>
       </c>
       <c s="2" t="inlineStr" r="N23">
         <is>
           <t xml:space="preserve">גיל עצמון</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="O23">
-        <is>
-          <t xml:space="preserve">ברושים</t>
-        </is>
-      </c>
-      <c s="3" r="P23">
-        <v>3</v>
-      </c>
+      <c s="2" t="str" r="O23"/>
+      <c s="5" t="str" r="P23"/>
       <c s="2" t="str" r="Q23"/>
       <c s="4" t="str" r="R23"/>
     </row>
@@ -1549,7 +1539,7 @@
         </is>
       </c>
       <c s="3" r="B24">
-        <v>5287</v>
+        <v>5288</v>
       </c>
       <c s="2" t="inlineStr" r="C24">
         <is>
@@ -1573,12 +1563,12 @@
       </c>
       <c s="4" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">יער ציפורי          </t>
+          <t xml:space="preserve">יער גבעת המורה      </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">יערות גוש נצרת</t>
+          <t xml:space="preserve">יערות גוש גלבוע</t>
         </is>
       </c>
       <c s="5" t="str" r="I24"/>
@@ -1607,7 +1597,7 @@
         </is>
       </c>
       <c s="3" r="B25">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c s="2" t="inlineStr" r="C25">
         <is>
@@ -1631,12 +1621,12 @@
       </c>
       <c s="4" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">יער גבעת המורה      </t>
+          <t xml:space="preserve">לביא                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">יערות גוש גלבוע</t>
+          <t xml:space="preserve">יערות גוש טבריה</t>
         </is>
       </c>
       <c s="5" t="str" r="I25"/>
@@ -1661,42 +1651,34 @@
     <row r="26" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">ג. תחתון - גלבוע</t>
+          <t xml:space="preserve">שפלה חוף</t>
         </is>
       </c>
       <c s="3" r="B26">
-        <v>5289</v>
+        <v>13064</v>
       </c>
       <c s="2" t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">דילול וגיזום</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D26">
         <is>
-          <t xml:space="preserve">חברת חשמל</t>
+          <t xml:space="preserve">חברת חשמל לישראל בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">בטיחות</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F26">
-        <is>
-          <t xml:space="preserve">עצים מסוכנים</t>
-        </is>
-      </c>
+          <t xml:space="preserve">פניות מלקוחות חוץ</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F26"/>
       <c s="4" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">לביא                </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H26">
-        <is>
-          <t xml:space="preserve">יערות גוש טבריה</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יערות קק"ל</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H26"/>
       <c s="5" t="str" r="I26"/>
       <c s="5" t="str" r="J26"/>
       <c s="6" t="str" r="K26"/>
@@ -1708,7 +1690,7 @@
       </c>
       <c s="2" t="inlineStr" r="N26">
         <is>
-          <t xml:space="preserve">גיל עצמון</t>
+          <t xml:space="preserve">גלעד מסטאי</t>
         </is>
       </c>
       <c s="2" t="str" r="O26"/>
@@ -1723,7 +1705,7 @@
         </is>
       </c>
       <c s="3" r="B27">
-        <v>13064</v>
+        <v>13065</v>
       </c>
       <c s="2" t="inlineStr" r="C27">
         <is>
@@ -1773,7 +1755,7 @@
         </is>
       </c>
       <c s="3" r="B28">
-        <v>13065</v>
+        <v>13066</v>
       </c>
       <c s="2" t="inlineStr" r="C28">
         <is>
@@ -1823,7 +1805,7 @@
         </is>
       </c>
       <c s="3" r="B29">
-        <v>13066</v>
+        <v>13067</v>
       </c>
       <c s="2" t="inlineStr" r="C29">
         <is>
@@ -1873,7 +1855,7 @@
         </is>
       </c>
       <c s="3" r="B30">
-        <v>13067</v>
+        <v>13068</v>
       </c>
       <c s="2" t="inlineStr" r="C30">
         <is>
@@ -1923,7 +1905,7 @@
         </is>
       </c>
       <c s="3" r="B31">
-        <v>13068</v>
+        <v>13260</v>
       </c>
       <c s="2" t="inlineStr" r="C31">
         <is>
@@ -1932,7 +1914,7 @@
       </c>
       <c s="2" t="inlineStr" r="D31">
         <is>
-          <t xml:space="preserve">חברת חשמל לישראל בע"מ</t>
+          <t xml:space="preserve">חברת החשמל לישראל בעמ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E31">
@@ -1951,7 +1933,7 @@
       <c s="5" t="str" r="J31"/>
       <c s="6" t="str" r="K31"/>
       <c s="7" r="L31">
-        <v>44197</v>
+        <v>44234</v>
       </c>
       <c s="7" r="M31">
         <v>44561</v>
@@ -1969,52 +1951,70 @@
     <row r="32" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">שפלה חוף</t>
+          <t xml:space="preserve">מנשה שרון</t>
         </is>
       </c>
       <c s="3" r="B32">
-        <v>13260</v>
+        <v>18856</v>
       </c>
       <c s="2" t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">דילול וגיזום</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">חברת החשמל לישראל בעמ</t>
+          <t xml:space="preserve">חברת  חשמל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">פניות מלקוחות חוץ</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F32"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">צמודים לקו מתח עליון</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">יערות קק"ל</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H32"/>
+          <t xml:space="preserve">נתניה               </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">חורשת ותיקים צמוד לכביש 57</t>
+        </is>
+      </c>
       <c s="5" t="str" r="I32"/>
       <c s="5" t="str" r="J32"/>
       <c s="6" t="str" r="K32"/>
       <c s="7" r="L32">
-        <v>44234</v>
+        <v>43573</v>
       </c>
       <c s="7" r="M32">
-        <v>44561</v>
+        <v>44304</v>
       </c>
       <c s="2" t="inlineStr" r="N32">
         <is>
-          <t xml:space="preserve">גלעד מסטאי</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="O32"/>
-      <c s="5" t="str" r="P32"/>
+          <t xml:space="preserve">סוהיל זיידן</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="O32">
+        <is>
+          <t xml:space="preserve">איקליפטוס המקור </t>
+        </is>
+      </c>
+      <c s="3" r="P32">
+        <v>46</v>
+      </c>
       <c s="2" t="str" r="Q32"/>
-      <c s="4" t="str" r="R32"/>
+      <c s="4" t="inlineStr" r="R32">
+        <is>
+          <t xml:space="preserve">לכריתה</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A33">
@@ -2075,12 +2075,12 @@
         </is>
       </c>
       <c s="3" r="P33">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q33"/>
       <c s="4" t="inlineStr" r="R33">
         <is>
-          <t xml:space="preserve">לכריתה</t>
+          <t xml:space="preserve">זרועות אקליפטוס לכריתה</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c s="3" r="B34">
-        <v>18856</v>
+        <v>19145</v>
       </c>
       <c s="2" t="inlineStr" r="C34">
         <is>
@@ -2100,7 +2100,7 @@
       </c>
       <c s="2" t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">חברת  חשמל</t>
+          <t xml:space="preserve">חברת חשמל (אהרון גבאי)</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E34">
@@ -2110,45 +2110,49 @@
       </c>
       <c s="2" t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">צמודים לקו מתח עליון</t>
+          <t xml:space="preserve">הקמת קו מתח </t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">נתניה               </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H34">
-        <is>
-          <t xml:space="preserve">חורשת ותיקים צמוד לכביש 57</t>
-        </is>
-      </c>
+          <t xml:space="preserve">מעין צבי            </t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H34"/>
       <c s="5" t="str" r="I34"/>
-      <c s="5" t="str" r="J34"/>
-      <c s="6" t="str" r="K34"/>
+      <c s="5" t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">10948</t>
+        </is>
+      </c>
+      <c s="6" t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">53</t>
+        </is>
+      </c>
       <c s="7" r="L34">
-        <v>43573</v>
+        <v>43682</v>
       </c>
       <c s="7" r="M34">
-        <v>44304</v>
+        <v>44413</v>
       </c>
       <c s="2" t="inlineStr" r="N34">
         <is>
-          <t xml:space="preserve">סוהיל זיידן</t>
+          <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="O34">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">אשל החוף</t>
         </is>
       </c>
       <c s="3" r="P34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="2" t="str" r="Q34"/>
       <c s="4" t="inlineStr" r="R34">
         <is>
-          <t xml:space="preserve">זרועות אקליפטוס לכריתה</t>
+          <t xml:space="preserve">10 דונם </t>
         </is>
       </c>
     </row>
@@ -2159,7 +2163,7 @@
         </is>
       </c>
       <c s="3" r="B35">
-        <v>19145</v>
+        <v>19945</v>
       </c>
       <c s="2" t="inlineStr" r="C35">
         <is>
@@ -2168,41 +2172,37 @@
       </c>
       <c s="2" t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">חברת חשמל (אהרון גבאי)</t>
+          <t xml:space="preserve">חברת החשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F35">
-        <is>
-          <t xml:space="preserve">הקמת קו מתח </t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F35"/>
       <c s="4" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">מעין צבי            </t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H35"/>
+          <t xml:space="preserve">חדרה                </t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">תחנת הכוח אורות רבין</t>
+        </is>
+      </c>
       <c s="5" t="str" r="I35"/>
       <c s="5" t="inlineStr" r="J35">
         <is>
-          <t xml:space="preserve">10948</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K35">
-        <is>
-          <t xml:space="preserve">53</t>
-        </is>
-      </c>
+          <t xml:space="preserve">10651-10649</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K35"/>
       <c s="7" r="L35">
-        <v>43682</v>
+        <v>43793</v>
       </c>
       <c s="7" r="M35">
-        <v>44413</v>
+        <v>44524</v>
       </c>
       <c s="2" t="inlineStr" r="N35">
         <is>
@@ -2211,16 +2211,16 @@
       </c>
       <c s="2" t="inlineStr" r="O35">
         <is>
-          <t xml:space="preserve">אשל החוף</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q35"/>
       <c s="4" t="inlineStr" r="R35">
         <is>
-          <t xml:space="preserve">10 דונם </t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
     </row>
@@ -2279,11 +2279,11 @@
       </c>
       <c s="2" t="inlineStr" r="O36">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="str" r="Q36"/>
       <c s="4" t="inlineStr" r="R36">
@@ -2299,46 +2299,50 @@
         </is>
       </c>
       <c s="3" r="B37">
-        <v>19945</v>
+        <v>19991</v>
       </c>
       <c s="2" t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">חברת החשמל לישראל</t>
+          <t xml:space="preserve">חברת חשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F37"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">הנחת כבל חשמל</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">חריש                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">תחנת הכוח אורות רבין</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I37"/>
-      <c s="5" t="inlineStr" r="J37">
-        <is>
-          <t xml:space="preserve">10651-10649</t>
-        </is>
-      </c>
+          <t xml:space="preserve">הנחת כבל חשמל מתח גבוה בחריש</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">תכנית עבודה ח.צ 209625</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="J37"/>
       <c s="6" t="str" r="K37"/>
       <c s="7" r="L37">
-        <v>43793</v>
+        <v>43885</v>
       </c>
       <c s="7" r="M37">
-        <v>44524</v>
+        <v>44616</v>
       </c>
       <c s="2" t="inlineStr" r="N37">
         <is>
@@ -2347,18 +2351,18 @@
       </c>
       <c s="2" t="inlineStr" r="O37">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">אורן ירושלים</t>
         </is>
       </c>
       <c s="3" r="P37">
-        <v>1</v>
-      </c>
-      <c s="2" t="str" r="Q37"/>
-      <c s="4" t="inlineStr" r="R37">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
+        <v>54</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q37">
+        <is>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R37"/>
     </row>
     <row r="38" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A38">
@@ -2419,11 +2423,11 @@
       </c>
       <c s="2" t="inlineStr" r="O38">
         <is>
-          <t xml:space="preserve">אורן ירושלים</t>
+          <t xml:space="preserve">ברוש מצוי</t>
         </is>
       </c>
       <c s="3" r="P38">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c s="2" t="inlineStr" r="Q38">
         <is>
@@ -2491,11 +2495,11 @@
       </c>
       <c s="2" t="inlineStr" r="O39">
         <is>
-          <t xml:space="preserve">ברוש מצוי</t>
+          <t xml:space="preserve">איקליפטוס המקור </t>
         </is>
       </c>
       <c s="3" r="P39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c s="2" t="inlineStr" r="Q39">
         <is>
@@ -2563,11 +2567,11 @@
       </c>
       <c s="2" t="inlineStr" r="O40">
         <is>
-          <t xml:space="preserve">איקליפטוס המקור </t>
+          <t xml:space="preserve">חרוב מצוי</t>
         </is>
       </c>
       <c s="3" r="P40">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q40">
         <is>
@@ -2583,7 +2587,7 @@
         </is>
       </c>
       <c s="3" r="B41">
-        <v>19991</v>
+        <v>20943</v>
       </c>
       <c s="2" t="inlineStr" r="C41">
         <is>
@@ -2592,41 +2596,37 @@
       </c>
       <c s="2" t="inlineStr" r="D41">
         <is>
-          <t xml:space="preserve">חברת חשמל לישראל</t>
+          <t xml:space="preserve">חברת חשמל בע"מ</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">אחר</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F41">
-        <is>
-          <t xml:space="preserve">הנחת כבל חשמל</t>
-        </is>
-      </c>
+          <t xml:space="preserve">בניה</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="F41"/>
       <c s="4" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">חריש                </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">הנחת כבל חשמל מתח גבוה בחריש</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I41">
-        <is>
-          <t xml:space="preserve">תכנית עבודה ח.צ 209625</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="J41"/>
+          <t xml:space="preserve">תחנת כח אורות רבין </t>
+        </is>
+      </c>
+      <c s="5" t="str" r="I41"/>
+      <c s="5" t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">10651,10649</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K41"/>
       <c s="7" r="L41">
-        <v>43885</v>
+        <v>43913</v>
       </c>
       <c s="7" r="M41">
-        <v>44616</v>
+        <v>44643</v>
       </c>
       <c s="2" t="inlineStr" r="N41">
         <is>
@@ -2635,11 +2635,11 @@
       </c>
       <c s="2" t="inlineStr" r="O41">
         <is>
-          <t xml:space="preserve">חרוב מצוי</t>
+          <t xml:space="preserve">אקליפטוסים</t>
         </is>
       </c>
       <c s="3" r="P41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q41">
         <is>
@@ -2703,11 +2703,11 @@
       </c>
       <c s="2" t="inlineStr" r="O42">
         <is>
-          <t xml:space="preserve">אקליפטוסים</t>
+          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
         </is>
       </c>
       <c s="3" r="P42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="2" t="inlineStr" r="Q42">
         <is>
@@ -2771,11 +2771,11 @@
       </c>
       <c s="2" t="inlineStr" r="O43">
         <is>
-          <t xml:space="preserve">אלביציה צהובה (לבק)</t>
+          <t xml:space="preserve">פלפלון דמוי-אלה</t>
         </is>
       </c>
       <c s="3" r="P43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q43">
         <is>
@@ -2839,11 +2839,11 @@
       </c>
       <c s="2" t="inlineStr" r="O44">
         <is>
-          <t xml:space="preserve">פלפלון דמוי-אלה</t>
+          <t xml:space="preserve">ינבוט לבן</t>
         </is>
       </c>
       <c s="3" r="P44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="2" t="inlineStr" r="Q44">
         <is>
@@ -2907,15 +2907,15 @@
       </c>
       <c s="2" t="inlineStr" r="O45">
         <is>
-          <t xml:space="preserve">ינבוט לבן</t>
+          <t xml:space="preserve">תות לבן</t>
         </is>
       </c>
       <c s="3" r="P45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="2" t="inlineStr" r="Q45">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R45"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c s="2" t="inlineStr" r="O46">
         <is>
-          <t xml:space="preserve">תות לבן</t>
+          <t xml:space="preserve">אשל הפרקים</t>
         </is>
       </c>
       <c s="3" r="P46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c s="2" t="inlineStr" r="Q46">
         <is>
@@ -3047,11 +3047,11 @@
         </is>
       </c>
       <c s="3" r="P47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q47">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R47"/>
@@ -3111,15 +3111,15 @@
       </c>
       <c s="2" t="inlineStr" r="O48">
         <is>
-          <t xml:space="preserve">אשל הפרקים</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q48">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R48"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c s="2" t="inlineStr" r="O49">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">חרוב מצוי</t>
         </is>
       </c>
       <c s="3" r="P49">
@@ -3187,7 +3187,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q49">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R49"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c s="2" t="inlineStr" r="O50">
         <is>
-          <t xml:space="preserve">חרוב מצוי</t>
+          <t xml:space="preserve">פיקוס התאנה</t>
         </is>
       </c>
       <c s="3" r="P50">
@@ -3255,7 +3255,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q50">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R50"/>
@@ -3315,18 +3315,22 @@
       </c>
       <c s="2" t="inlineStr" r="O51">
         <is>
-          <t xml:space="preserve">פיקוס התאנה</t>
+          <t xml:space="preserve">קופרניסיה לבנה</t>
         </is>
       </c>
       <c s="3" r="P51">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c s="2" t="inlineStr" r="Q51">
         <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R51"/>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R51">
+        <is>
+          <t xml:space="preserve">קופניון אנקרדי</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A52">
@@ -3383,22 +3387,18 @@
       </c>
       <c s="2" t="inlineStr" r="O52">
         <is>
-          <t xml:space="preserve">קופרניסיה לבנה</t>
+          <t xml:space="preserve">ושינגטוניה חוטית</t>
         </is>
       </c>
       <c s="3" r="P52">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q52">
         <is>
           <t xml:space="preserve">כריתה</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="R52">
-        <is>
-          <t xml:space="preserve">קופניון אנקרדי</t>
-        </is>
-      </c>
+      <c s="4" t="str" r="R52"/>
     </row>
     <row r="53" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A53">
@@ -3455,11 +3455,11 @@
       </c>
       <c s="2" t="inlineStr" r="O53">
         <is>
-          <t xml:space="preserve">ושינגטוניה חוטית</t>
+          <t xml:space="preserve">ושינגטוניה חסונה</t>
         </is>
       </c>
       <c s="3" r="P53">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c s="2" t="inlineStr" r="Q53">
         <is>
@@ -3523,15 +3523,15 @@
       </c>
       <c s="2" t="inlineStr" r="O54">
         <is>
-          <t xml:space="preserve">ושינגטוניה חסונה</t>
+          <t xml:space="preserve">תמר מצוי</t>
         </is>
       </c>
       <c s="3" r="P54">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="2" t="inlineStr" r="Q54">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R54"/>
@@ -3595,14 +3595,18 @@
         </is>
       </c>
       <c s="3" r="P55">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q55">
         <is>
-          <t xml:space="preserve">העתקה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R55"/>
+          <t xml:space="preserve">כריתה</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="R55">
+        <is>
+          <t xml:space="preserve">עץ מס' 615 נוסף לכריתה בתאריך 3/1/21</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A56">
@@ -3659,22 +3663,18 @@
       </c>
       <c s="2" t="inlineStr" r="O56">
         <is>
-          <t xml:space="preserve">תמר מצוי</t>
+          <t xml:space="preserve">אלמוגן רחב-עלים</t>
         </is>
       </c>
       <c s="3" r="P56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q56">
         <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R56">
-        <is>
-          <t xml:space="preserve">עץ מס' 615 נוסף לכריתה בתאריך 3/1/21</t>
-        </is>
-      </c>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
+      <c s="4" t="str" r="R56"/>
     </row>
     <row r="57" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A57">
@@ -3799,7 +3799,7 @@
       </c>
       <c s="2" t="inlineStr" r="O58">
         <is>
-          <t xml:space="preserve">אלמוגן רחב-עלים</t>
+          <t xml:space="preserve">גואיבה מצויה</t>
         </is>
       </c>
       <c s="3" r="P58">
@@ -3807,7 +3807,7 @@
       </c>
       <c s="2" t="inlineStr" r="Q58">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R58"/>
@@ -3867,11 +3867,11 @@
       </c>
       <c s="2" t="inlineStr" r="O59">
         <is>
-          <t xml:space="preserve">גואיבה מצויה</t>
+          <t xml:space="preserve">פיקוס בינימינה</t>
         </is>
       </c>
       <c s="3" r="P59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q59">
         <is>
@@ -3935,7 +3935,7 @@
       </c>
       <c s="2" t="inlineStr" r="O60">
         <is>
-          <t xml:space="preserve">פיקוס בינימינה</t>
+          <t xml:space="preserve">פיקוס הגומי</t>
         </is>
       </c>
       <c s="3" r="P60">
@@ -4003,11 +4003,11 @@
       </c>
       <c s="2" t="inlineStr" r="O61">
         <is>
-          <t xml:space="preserve">פיקוס הגומי</t>
+          <t xml:space="preserve">פיקוס מעוקם</t>
         </is>
       </c>
       <c s="3" r="P61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q61">
         <is>
@@ -4075,11 +4075,11 @@
         </is>
       </c>
       <c s="3" r="P62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q62">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R62"/>
@@ -4139,11 +4139,11 @@
       </c>
       <c s="2" t="inlineStr" r="O63">
         <is>
-          <t xml:space="preserve">פיקוס מעוקם</t>
+          <t xml:space="preserve">פיקוס קדוש</t>
         </is>
       </c>
       <c s="3" r="P63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="2" t="inlineStr" r="Q63">
         <is>
@@ -4211,11 +4211,11 @@
         </is>
       </c>
       <c s="3" r="P64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q64">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R64"/>
@@ -4275,11 +4275,11 @@
       </c>
       <c s="2" t="inlineStr" r="O65">
         <is>
-          <t xml:space="preserve">פיקוס קדוש</t>
+          <t xml:space="preserve">שלטית מקומטת</t>
         </is>
       </c>
       <c s="3" r="P65">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c s="2" t="inlineStr" r="Q65">
         <is>
@@ -4343,11 +4343,11 @@
       </c>
       <c s="2" t="inlineStr" r="O66">
         <is>
-          <t xml:space="preserve">שלטית מקומטת</t>
+          <t xml:space="preserve">שפלרה מקרינה</t>
         </is>
       </c>
       <c s="3" r="P66">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c s="2" t="inlineStr" r="Q66">
         <is>
@@ -4411,15 +4411,15 @@
       </c>
       <c s="2" t="inlineStr" r="O67">
         <is>
-          <t xml:space="preserve">שפלרה מקרינה</t>
+          <t xml:space="preserve">פלומריה ריחנית</t>
         </is>
       </c>
       <c s="3" r="P67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c s="2" t="inlineStr" r="Q67">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">העתקה</t>
         </is>
       </c>
       <c s="4" t="str" r="R67"/>
@@ -4479,15 +4479,15 @@
       </c>
       <c s="2" t="inlineStr" r="O68">
         <is>
-          <t xml:space="preserve">פלומריה ריחנית</t>
+          <t xml:space="preserve">צחר כחלחל</t>
         </is>
       </c>
       <c s="3" r="P68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="2" t="inlineStr" r="Q68">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="str" r="R68"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c s="2" t="inlineStr" r="O69">
         <is>
-          <t xml:space="preserve">צחר כחלחל</t>
+          <t xml:space="preserve">קליסטמון אדום</t>
         </is>
       </c>
       <c s="3" r="P69">
@@ -4567,46 +4567,46 @@
         </is>
       </c>
       <c s="3" r="B70">
-        <v>20943</v>
+        <v>21114</v>
       </c>
       <c s="2" t="inlineStr" r="C70">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D70">
         <is>
-          <t xml:space="preserve">חברת חשמל בע"מ</t>
+          <t xml:space="preserve">קק"ל יער קאסם ( חברת החשמל )</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">בניה</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="F70"/>
+          <t xml:space="preserve">אחר</t>
+        </is>
+      </c>
+      <c s="2" t="inlineStr" r="F70">
+        <is>
+          <t xml:space="preserve">הפרעה לקו מתח עליון </t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">חדרה                </t>
+          <t xml:space="preserve">יער קקל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">תחנת כח אורות רבין </t>
+          <t xml:space="preserve">יער קאסם </t>
         </is>
       </c>
       <c s="5" t="str" r="I70"/>
-      <c s="5" t="inlineStr" r="J70">
-        <is>
-          <t xml:space="preserve">10651,10649</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J70"/>
       <c s="6" t="str" r="K70"/>
       <c s="7" r="L70">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c s="7" r="M70">
-        <v>44643</v>
+        <v>44308</v>
       </c>
       <c s="2" t="inlineStr" r="N70">
         <is>
@@ -4615,18 +4615,18 @@
       </c>
       <c s="2" t="inlineStr" r="O70">
         <is>
-          <t xml:space="preserve">קליסטמון אדום</t>
+          <t xml:space="preserve">אורנים</t>
         </is>
       </c>
       <c s="3" r="P70">
-        <v>3</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q70">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="str" r="R70"/>
+        <v>11</v>
+      </c>
+      <c s="2" t="str" r="Q70"/>
+      <c s="4" t="inlineStr" r="R70">
+        <is>
+          <t xml:space="preserve">ליד עמוד 1239</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="14.15" customHeight="0">
       <c s="2" t="inlineStr" r="A71">
@@ -4687,12 +4687,12 @@
         </is>
       </c>
       <c s="3" r="P71">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c s="2" t="str" r="Q71"/>
       <c s="4" t="inlineStr" r="R71">
         <is>
-          <t xml:space="preserve">ליד עמוד 1239</t>
+          <t xml:space="preserve">ליד עמוד 1240</t>
         </is>
       </c>
     </row>
@@ -4751,16 +4751,16 @@
       </c>
       <c s="2" t="inlineStr" r="O72">
         <is>
-          <t xml:space="preserve">אורנים</t>
+          <t xml:space="preserve">ברושים</t>
         </is>
       </c>
       <c s="3" r="P72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="2" t="str" r="Q72"/>
       <c s="4" t="inlineStr" r="R72">
         <is>
-          <t xml:space="preserve">ליד עמוד 1240</t>
+          <t xml:space="preserve">ליד עמוד 1239</t>
         </is>
       </c>
     </row>
@@ -4819,11 +4819,11 @@
       </c>
       <c s="2" t="inlineStr" r="O73">
         <is>
-          <t xml:space="preserve">ברושים</t>
+          <t xml:space="preserve">שיטה כחלחלה</t>
         </is>
       </c>
       <c s="3" r="P73">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c s="2" t="str" r="Q73"/>
       <c s="4" t="inlineStr" r="R73">
@@ -4839,7 +4839,7 @@
         </is>
       </c>
       <c s="3" r="B74">
-        <v>21114</v>
+        <v>21360</v>
       </c>
       <c s="2" t="inlineStr" r="C74">
         <is>
@@ -4848,37 +4848,41 @@
       </c>
       <c s="2" t="inlineStr" r="D74">
         <is>
-          <t xml:space="preserve">קק"ל יער קאסם ( חברת החשמל )</t>
+          <t xml:space="preserve">חברת החשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">אחר</t>
+          <t xml:space="preserve">בניה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F74">
         <is>
-          <t xml:space="preserve">הפרעה לקו מתח עליון </t>
+          <t xml:space="preserve">בניית עמוד קו 400</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">יער קקל</t>
+          <t xml:space="preserve">רגבים               </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">יער קאסם </t>
+          <t xml:space="preserve">יער עירון - עמוד חשמל 41439</t>
         </is>
       </c>
       <c s="5" t="str" r="I74"/>
       <c s="5" t="str" r="J74"/>
-      <c s="6" t="str" r="K74"/>
+      <c s="6" t="inlineStr" r="K74">
+        <is>
+          <t xml:space="preserve">7 עומד 116</t>
+        </is>
+      </c>
       <c s="7" r="L74">
-        <v>43943</v>
+        <v>44077</v>
       </c>
       <c s="7" r="M74">
-        <v>44308</v>
+        <v>44444</v>
       </c>
       <c s="2" t="inlineStr" r="N74">
         <is>
@@ -4887,16 +4891,16 @@
       </c>
       <c s="2" t="inlineStr" r="O74">
         <is>
-          <t xml:space="preserve">שיטה כחלחלה</t>
+          <t xml:space="preserve">ברושים</t>
         </is>
       </c>
       <c s="3" r="P74">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c s="2" t="str" r="Q74"/>
       <c s="4" t="inlineStr" r="R74">
         <is>
-          <t xml:space="preserve">ליד עמוד 1239</t>
+          <t xml:space="preserve">כריתה </t>
         </is>
       </c>
     </row>
@@ -4907,16 +4911,16 @@
         </is>
       </c>
       <c s="3" r="B75">
-        <v>21360</v>
+        <v>22332</v>
       </c>
       <c s="2" t="inlineStr" r="C75">
         <is>
-          <t xml:space="preserve">כריתה</t>
+          <t xml:space="preserve">כריתה והעתקה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve">חברת החשמל לישראל</t>
+          <t xml:space="preserve">חברת חשמל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E75">
@@ -4926,31 +4930,39 @@
       </c>
       <c s="2" t="inlineStr" r="F75">
         <is>
-          <t xml:space="preserve">בניית עמוד קו 400</t>
+          <t xml:space="preserve">תכנית פיתוח והקמת תחנת כח.</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">רגבים               </t>
+          <t xml:space="preserve">חדרה                </t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">יער עירון - עמוד חשמל 41439</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="I75"/>
-      <c s="5" t="str" r="J75"/>
+          <t xml:space="preserve">קו דלק צינור תשן מחלף קיסריה</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="I75">
+        <is>
+          <t xml:space="preserve">12</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="J75">
+        <is>
+          <t xml:space="preserve">10652</t>
+        </is>
+      </c>
       <c s="6" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">7 עומד 116</t>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c s="7" r="L75">
-        <v>44077</v>
+        <v>44229</v>
       </c>
       <c s="7" r="M75">
-        <v>44444</v>
+        <v>44959</v>
       </c>
       <c s="2" t="inlineStr" r="N75">
         <is>
@@ -4959,16 +4971,20 @@
       </c>
       <c s="2" t="inlineStr" r="O75">
         <is>
-          <t xml:space="preserve">ברושים</t>
+          <t xml:space="preserve">זית אירופי</t>
         </is>
       </c>
       <c s="3" r="P75">
-        <v>50</v>
-      </c>
-      <c s="2" t="str" r="Q75"/>
+        <v>7</v>
+      </c>
+      <c s="2" t="inlineStr" r="Q75">
+        <is>
+          <t xml:space="preserve">העתקה</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="R75">
         <is>
-          <t xml:space="preserve">כריתה </t>
+          <t xml:space="preserve">להעתקה</t>
         </is>
       </c>
     </row>
@@ -5039,20 +5055,20 @@
       </c>
       <c s="2" t="inlineStr" r="O76">
         <is>
-          <t xml:space="preserve">זית אירופי</t>
+          <t xml:space="preserve">חרוב מצוי</t>
         </is>
       </c>
       <c s="3" r="P76">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="2" t="inlineStr" r="Q76">
         <is>
-          <t xml:space="preserve">העתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="R76">
         <is>
-          <t xml:space="preserve">להעתקה</t>
+          <t xml:space="preserve">לכריתה</t>
         </is>
       </c>
     </row>
@@ -5063,82 +5079,52 @@
         </is>
       </c>
       <c s="3" r="B77">
-        <v>22332</v>
+        <v>22450</v>
       </c>
       <c s="2" t="inlineStr" r="C77">
         <is>
-          <t xml:space="preserve">כריתה והעתקה</t>
+          <t xml:space="preserve">כריתה</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="D77">
         <is>
-          <t xml:space="preserve">חברת חשמל</t>
+          <t xml:space="preserve">חברת חשמל לישראל</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">בניה</t>
+          <t xml:space="preserve">פינוי עץ מיידי</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="F77">
         <is>
-          <t xml:space="preserve">תכנית פיתוח והקמת תחנת כח.</t>
+          <t xml:space="preserve">בטיחות עצים מסוכנים</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">חדרה                </t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="H77">
-        <is>
-          <t xml:space="preserve">קו דלק צינור תשן מחלף קיסריה</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="I77">
-        <is>
-          <t xml:space="preserve">12</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="J77">
-        <is>
-          <t xml:space="preserve">10652</t>
-        </is>
-      </c>
-      <c s="6" t="inlineStr" r="K77">
-        <is>
-          <t xml:space="preserve">1</t>
-        </is>
-      </c>
+          <t xml:space="preserve">יערות קק"ל</t>
+        </is>
+      </c>
+      <c s="2" t="str" r="H77"/>
+      <c s="5" t="str" r="I77"/>
+      <c s="5" t="str" r="J77"/>
+      <c s="6" t="str" r="K77"/>
       <c s="7" r="L77">
-        <v>44229</v>
+        <v>44215</v>
       </c>
       <c s="7" r="M77">
-        <v>44959</v>
+        <v>44580</v>
       </c>
       <c s="2" t="inlineStr" r="N77">
         <is>
           <t xml:space="preserve">רמי דוידי</t>
         </is>
       </c>
-      <c s="2" t="inlineStr" r="O77">
-        <is>
-          <t xml:space="preserve">חרוב מצוי</t>
-        </is>
-      </c>
-      <c s="3" r="P77">
-        <v>2</v>
-      </c>
-      <c s="2" t="inlineStr" r="Q77">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="R77">
-        <is>
-          <t xml:space="preserve">לכריתה</t>
-        </is>
-      </c>
+      <c s="2" t="str" r="O77"/>
+      <c s="5" t="str" r="P77"/>
+      <c s="2" t="str" r="Q77"/>
+      <c s="4" t="str" r="R77"/>
     </row>
     <row r="78" ht="14.2" customHeight="0">
       <c s="2" t="inlineStr" r="A78">
@@ -5147,7 +5133,7 @@
         </is>
       </c>
       <c s="3" r="B78">
-        <v>22450</v>
+        <v>22451</v>
       </c>
       <c s="2" t="inlineStr" r="C78">
         <is>
@@ -5166,7 +5152,7 @@
       </c>
       <c s="2" t="inlineStr" r="F78">
         <is>
-          <t xml:space="preserve">בטיחות עצים מסוכנים</t>
+          <t xml:space="preserve">בטיחות,עצים מסוכנים</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="G78">
@@ -5194,159 +5180,104 @@
       <c s="2" t="str" r="Q78"/>
       <c s="4" t="str" r="R78"/>
     </row>
-    <row r="79" ht="14.15" customHeight="0">
-      <c s="2" t="inlineStr" r="A79">
-        <is>
-          <t xml:space="preserve">מנשה שרון</t>
-        </is>
-      </c>
-      <c s="3" r="B79">
-        <v>22451</v>
-      </c>
-      <c s="2" t="inlineStr" r="C79">
-        <is>
-          <t xml:space="preserve">כריתה</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D79">
-        <is>
-          <t xml:space="preserve">חברת חשמל לישראל</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="E79">
-        <is>
-          <t xml:space="preserve">פינוי עץ מיידי</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="F79">
-        <is>
-          <t xml:space="preserve">בטיחות,עצים מסוכנים</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="G79">
-        <is>
-          <t xml:space="preserve">יערות קק"ל</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="H79"/>
-      <c s="5" t="str" r="I79"/>
-      <c s="5" t="str" r="J79"/>
-      <c s="6" t="str" r="K79"/>
-      <c s="7" r="L79">
-        <v>44215</v>
-      </c>
-      <c s="7" r="M79">
-        <v>44580</v>
-      </c>
-      <c s="2" t="inlineStr" r="N79">
-        <is>
-          <t xml:space="preserve">רמי דוידי</t>
-        </is>
-      </c>
-      <c s="2" t="str" r="O79"/>
-      <c s="5" t="str" r="P79"/>
-      <c s="2" t="str" r="Q79"/>
-      <c s="4" t="str" r="R79"/>
-    </row>
-    <row r="80" ht="13.9" customHeight="0">
-      <c s="8" t="inlineStr" r="A80">
+    <row r="79" ht="13.9" customHeight="0">
+      <c s="8" t="inlineStr" r="A79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="B80">
+      <c s="8" t="inlineStr" r="B79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="C80">
+      <c s="8" t="inlineStr" r="C79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="D80">
+      <c s="8" t="inlineStr" r="D79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="E80">
+      <c s="8" t="inlineStr" r="E79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="F80">
+      <c s="8" t="inlineStr" r="F79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="G80">
+      <c s="8" t="inlineStr" r="G79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="H80">
+      <c s="8" t="inlineStr" r="H79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="I80">
+      <c s="8" t="inlineStr" r="I79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="J80">
+      <c s="8" t="inlineStr" r="J79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="K80">
+      <c s="8" t="inlineStr" r="K79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="L80">
+      <c s="8" t="inlineStr" r="L79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="M80">
+      <c s="8" t="inlineStr" r="M79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="N80">
+      <c s="8" t="inlineStr" r="N79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="O80">
+      <c s="8" t="inlineStr" r="O79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="P80">
+      <c s="8" t="inlineStr" r="P79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="Q80">
+      <c s="8" t="inlineStr" r="Q79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="R80">
+      <c s="8" t="inlineStr" r="R79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="S80">
+      <c s="8" t="inlineStr" r="S79">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
     </row>
-    <row r="81" ht="0.05" customHeight="1"/>
-    <row r="82" ht="73.15" customHeight="1"/>
+    <row r="80" ht="73.15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5590,13 +5521,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D50907-B003-4A54-ADD3-657EDBF29487}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A94CF995-7A02-498A-A8C1-04BCC3B587FA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B95F460-07CC-4FBD-B74D-8B693E38F79A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A853AE0-3580-4307-AEA4-1A2C9DE95ABA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0D2D27-7CED-410A-80AA-B33CB0A78E15}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FBCB670-464F-450F-83AA-E0ECD7B7E560}"/>
 </file>
--- a/chashmal-after.xlsx
+++ b/chashmal-after.xlsx
@@ -5521,13 +5521,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A94CF995-7A02-498A-A8C1-04BCC3B587FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D7AA5E8-9BFE-461F-9642-27BB324EC1B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A853AE0-3580-4307-AEA4-1A2C9DE95ABA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374371AC-68B5-44AB-BB2B-B3BC74C5F264}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FBCB670-464F-450F-83AA-E0ECD7B7E560}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A432FE-BF22-4506-9E5A-2D1671B1689C}"/>
 </file>